--- a/raw_data/LASER_CE.xlsx
+++ b/raw_data/LASER_CE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lechonminhdat/Desktop/Workspace/LASER/CE LASER PYthon/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lechonminhdat/Desktop/Workspace/LASER/ce laser python/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE69497-5AC3-2946-B1CA-924BBBE5169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705569A6-1CE0-894F-BBDD-CCFAA67D8829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="540" windowWidth="28020" windowHeight="16380" tabRatio="692" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13119" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13122" uniqueCount="1121">
   <si>
     <t>Revision</t>
   </si>
@@ -3485,6 +3485,12 @@
   </si>
   <si>
     <t>Abstand zwischen den Linien</t>
+  </si>
+  <si>
+    <t>MC325</t>
+  </si>
+  <si>
+    <t>MC326</t>
   </si>
 </sst>
 </file>
@@ -4212,7 +4218,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="456">
+  <cellXfs count="455">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5402,9 +5408,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="48" fillId="18" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7628,16 +7631,16 @@
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="434" t="s">
+      <c r="B1" s="433" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="435"/>
-      <c r="D1" s="436"/>
-      <c r="E1" s="437" t="s">
+      <c r="C1" s="434"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="436" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
       <c r="J1" s="75"/>
@@ -7714,13 +7717,13 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="439" t="s">
+      <c r="A5" s="438" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="439"/>
-      <c r="C5" s="439"/>
-      <c r="D5" s="439"/>
-      <c r="E5" s="439"/>
+      <c r="B5" s="438"/>
+      <c r="C5" s="438"/>
+      <c r="D5" s="438"/>
+      <c r="E5" s="438"/>
       <c r="F5" s="87"/>
       <c r="G5" s="87"/>
       <c r="H5" s="87"/>
@@ -19749,12 +19752,12 @@
       <c r="N319" s="118"/>
     </row>
     <row r="320" spans="1:14">
-      <c r="A320" s="431" t="s">
+      <c r="A320" s="430" t="s">
         <v>589</v>
       </c>
-      <c r="B320" s="433"/>
-      <c r="C320" s="433"/>
-      <c r="D320" s="432"/>
+      <c r="B320" s="432"/>
+      <c r="C320" s="432"/>
+      <c r="D320" s="431"/>
       <c r="E320" s="105"/>
       <c r="F320" s="87"/>
       <c r="G320" s="87"/>
@@ -19874,11 +19877,11 @@
       <c r="N323" s="117"/>
     </row>
     <row r="324" spans="1:14">
-      <c r="A324" s="431" t="s">
+      <c r="A324" s="430" t="s">
         <v>599</v>
       </c>
-      <c r="B324" s="433"/>
-      <c r="C324" s="432"/>
+      <c r="B324" s="432"/>
+      <c r="C324" s="431"/>
       <c r="D324" s="87"/>
       <c r="E324" s="105"/>
       <c r="F324" s="87"/>
@@ -19964,13 +19967,13 @@
       <c r="N326" s="118"/>
     </row>
     <row r="327" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A327" s="431" t="s">
+      <c r="A327" s="430" t="s">
         <v>608</v>
       </c>
-      <c r="B327" s="433"/>
-      <c r="C327" s="433"/>
-      <c r="D327" s="433"/>
-      <c r="E327" s="432"/>
+      <c r="B327" s="432"/>
+      <c r="C327" s="432"/>
+      <c r="D327" s="432"/>
+      <c r="E327" s="431"/>
       <c r="F327" s="107"/>
       <c r="G327" s="107"/>
       <c r="H327" s="108"/>
@@ -20261,10 +20264,10 @@
       <c r="N335" s="118"/>
     </row>
     <row r="336" spans="1:14">
-      <c r="A336" s="431" t="s">
+      <c r="A336" s="430" t="s">
         <v>633</v>
       </c>
-      <c r="B336" s="432"/>
+      <c r="B336" s="431"/>
       <c r="C336" s="107"/>
       <c r="D336" s="108"/>
       <c r="E336" s="113"/>
@@ -21548,16 +21551,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="443" t="s">
+      <c r="B1" s="442" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="444"/>
-      <c r="D1" s="445"/>
-      <c r="E1" s="446" t="s">
+      <c r="C1" s="443"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="445" t="s">
         <v>736</v>
       </c>
-      <c r="F1" s="447"/>
-      <c r="G1" s="447"/>
+      <c r="F1" s="446"/>
+      <c r="G1" s="446"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
@@ -21634,13 +21637,13 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="439" t="s">
+      <c r="A5" s="438" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="439"/>
-      <c r="C5" s="439"/>
-      <c r="D5" s="439"/>
-      <c r="E5" s="439"/>
+      <c r="B5" s="438"/>
+      <c r="C5" s="438"/>
+      <c r="D5" s="438"/>
+      <c r="E5" s="438"/>
       <c r="F5" s="87"/>
       <c r="G5" s="87"/>
       <c r="H5" s="87"/>
@@ -33617,12 +33620,12 @@
       <c r="N319" s="97"/>
     </row>
     <row r="320" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A320" s="431" t="s">
+      <c r="A320" s="430" t="s">
         <v>589</v>
       </c>
-      <c r="B320" s="433"/>
-      <c r="C320" s="433"/>
-      <c r="D320" s="432"/>
+      <c r="B320" s="432"/>
+      <c r="C320" s="432"/>
+      <c r="D320" s="431"/>
       <c r="E320" s="155"/>
       <c r="F320" s="87"/>
       <c r="G320" s="87"/>
@@ -33759,11 +33762,11 @@
       <c r="N324" s="33"/>
     </row>
     <row r="325" spans="1:14">
-      <c r="A325" s="440" t="s">
+      <c r="A325" s="439" t="s">
         <v>599</v>
       </c>
-      <c r="B325" s="442"/>
-      <c r="C325" s="441"/>
+      <c r="B325" s="441"/>
+      <c r="C325" s="440"/>
       <c r="D325" s="26"/>
       <c r="E325" s="46"/>
       <c r="F325" s="26"/>
@@ -33849,13 +33852,13 @@
       <c r="N327" s="43"/>
     </row>
     <row r="328" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A328" s="440" t="s">
+      <c r="A328" s="439" t="s">
         <v>608</v>
       </c>
-      <c r="B328" s="442"/>
-      <c r="C328" s="442"/>
-      <c r="D328" s="442"/>
-      <c r="E328" s="441"/>
+      <c r="B328" s="441"/>
+      <c r="C328" s="441"/>
+      <c r="D328" s="441"/>
+      <c r="E328" s="440"/>
       <c r="F328" s="52"/>
       <c r="G328" s="52"/>
       <c r="H328" s="53"/>
@@ -34135,10 +34138,10 @@
       <c r="N336" s="43"/>
     </row>
     <row r="337" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A337" s="440" t="s">
+      <c r="A337" s="439" t="s">
         <v>633</v>
       </c>
-      <c r="B337" s="441"/>
+      <c r="B337" s="440"/>
       <c r="C337" s="52"/>
       <c r="D337" s="58"/>
       <c r="E337" s="59"/>
@@ -35884,8 +35887,8 @@
   <dimension ref="A1:T504"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="4" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O345" sqref="O345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -35918,16 +35921,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="448" t="s">
+      <c r="B1" s="447" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="449"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="446" t="s">
+      <c r="C1" s="448"/>
+      <c r="D1" s="449"/>
+      <c r="E1" s="445" t="s">
         <v>744</v>
       </c>
-      <c r="F1" s="447"/>
-      <c r="G1" s="447"/>
+      <c r="F1" s="446"/>
+      <c r="G1" s="446"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
@@ -36019,13 +36022,13 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="451" t="s">
+      <c r="A5" s="450" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="451"/>
-      <c r="C5" s="451"/>
-      <c r="D5" s="451"/>
-      <c r="E5" s="451"/>
+      <c r="B5" s="450"/>
+      <c r="C5" s="450"/>
+      <c r="D5" s="450"/>
+      <c r="E5" s="450"/>
       <c r="F5" s="367"/>
       <c r="G5" s="364"/>
       <c r="H5" s="26"/>
@@ -36061,7 +36064,7 @@
       <c r="N6" s="320"/>
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="369" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="379" t="s">
@@ -36104,7 +36107,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A8" s="378" t="s">
+      <c r="A8" s="369" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="379" t="s">
@@ -36147,7 +36150,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1">
-      <c r="A9" s="378" t="s">
+      <c r="A9" s="369" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="379" t="s">
@@ -36190,7 +36193,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A10" s="378" t="s">
+      <c r="A10" s="369" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="379" t="s">
@@ -36233,7 +36236,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="378" t="s">
+      <c r="A11" s="369" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="379" t="s">
@@ -36276,7 +36279,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="378" t="s">
+      <c r="A12" s="369" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="379" t="s">
@@ -36319,7 +36322,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A13" s="378" t="s">
+      <c r="A13" s="369" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="379" t="s">
@@ -36362,7 +36365,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A14" s="378" t="s">
+      <c r="A14" s="369" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="379" t="s">
@@ -36405,7 +36408,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A15" s="378" t="s">
+      <c r="A15" s="369" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="379" t="s">
@@ -36448,7 +36451,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A16" s="378" t="s">
+      <c r="A16" s="369" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="379" t="s">
@@ -36491,7 +36494,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A17" s="378" t="s">
+      <c r="A17" s="369" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="379" t="s">
@@ -36534,7 +36537,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A18" s="378" t="s">
+      <c r="A18" s="369" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="379" t="s">
@@ -36563,7 +36566,7 @@
       <c r="P18" s="317"/>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1">
-      <c r="A19" s="378" t="s">
+      <c r="A19" s="369" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="379" t="s">
@@ -36606,7 +36609,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1">
-      <c r="A20" s="378" t="s">
+      <c r="A20" s="369" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="379" t="s">
@@ -36649,7 +36652,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A21" s="378" t="s">
+      <c r="A21" s="369" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="379" t="s">
@@ -36692,7 +36695,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A22" s="378" t="s">
+      <c r="A22" s="369" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="379" t="s">
@@ -36735,7 +36738,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A23" s="378" t="s">
+      <c r="A23" s="369" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="379" t="s">
@@ -36778,7 +36781,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="18" customHeight="1">
-      <c r="A24" s="378" t="s">
+      <c r="A24" s="369" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="379" t="s">
@@ -36821,7 +36824,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A25" s="378" t="s">
+      <c r="A25" s="369" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="379" t="s">
@@ -36847,7 +36850,7 @@
       <c r="P25" s="317"/>
     </row>
     <row r="26" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A26" s="378" t="s">
+      <c r="A26" s="369" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="379" t="s">
@@ -36892,7 +36895,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A27" s="378" t="s">
+      <c r="A27" s="369" t="s">
         <v>75</v>
       </c>
       <c r="B27" s="379" t="s">
@@ -36918,7 +36921,7 @@
       <c r="P27" s="317"/>
     </row>
     <row r="28" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A28" s="378" t="s">
+      <c r="A28" s="369" t="s">
         <v>77</v>
       </c>
       <c r="B28" s="379" t="s">
@@ -36963,7 +36966,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A29" s="378" t="s">
+      <c r="A29" s="369" t="s">
         <v>79</v>
       </c>
       <c r="B29" s="379" t="s">
@@ -37008,7 +37011,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A30" s="378" t="s">
+      <c r="A30" s="369" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="379" t="s">
@@ -37053,7 +37056,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A31" s="378" t="s">
+      <c r="A31" s="369" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="379" t="s">
@@ -37098,7 +37101,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A32" s="378" t="s">
+      <c r="A32" s="369" t="s">
         <v>85</v>
       </c>
       <c r="B32" s="379" t="s">
@@ -37137,7 +37140,7 @@
       <c r="P32" s="317"/>
     </row>
     <row r="33" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A33" s="378" t="s">
+      <c r="A33" s="369" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="379" t="s">
@@ -37176,7 +37179,7 @@
       <c r="P33" s="317"/>
     </row>
     <row r="34" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A34" s="378" t="s">
+      <c r="A34" s="369" t="s">
         <v>89</v>
       </c>
       <c r="B34" s="379" t="s">
@@ -37202,7 +37205,7 @@
       <c r="P34" s="317"/>
     </row>
     <row r="35" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A35" s="378" t="s">
+      <c r="A35" s="369" t="s">
         <v>92</v>
       </c>
       <c r="B35" s="379" t="s">
@@ -37247,7 +37250,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A36" s="378" t="s">
+      <c r="A36" s="369" t="s">
         <v>94</v>
       </c>
       <c r="B36" s="379" t="s">
@@ -37292,7 +37295,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A37" s="378" t="s">
+      <c r="A37" s="369" t="s">
         <v>96</v>
       </c>
       <c r="B37" s="379" t="s">
@@ -37337,7 +37340,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A38" s="378" t="s">
+      <c r="A38" s="369" t="s">
         <v>98</v>
       </c>
       <c r="B38" s="379" t="s">
@@ -37382,7 +37385,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A39" s="378" t="s">
+      <c r="A39" s="369" t="s">
         <v>100</v>
       </c>
       <c r="B39" s="379" t="s">
@@ -37421,7 +37424,7 @@
       <c r="P39" s="317"/>
     </row>
     <row r="40" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A40" s="378" t="s">
+      <c r="A40" s="369" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="379" t="s">
@@ -37460,7 +37463,7 @@
       <c r="P40" s="317"/>
     </row>
     <row r="41" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A41" s="378" t="s">
+      <c r="A41" s="369" t="s">
         <v>102</v>
       </c>
       <c r="B41" s="379" t="s">
@@ -37486,7 +37489,7 @@
       <c r="P41" s="317"/>
     </row>
     <row r="42" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A42" s="378" t="s">
+      <c r="A42" s="369" t="s">
         <v>103</v>
       </c>
       <c r="B42" s="379" t="s">
@@ -37531,7 +37534,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A43" s="378" t="s">
+      <c r="A43" s="369" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="379" t="s">
@@ -37576,7 +37579,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A44" s="378" t="s">
+      <c r="A44" s="369" t="s">
         <v>105</v>
       </c>
       <c r="B44" s="379" t="s">
@@ -37621,7 +37624,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A45" s="378" t="s">
+      <c r="A45" s="369" t="s">
         <v>106</v>
       </c>
       <c r="B45" s="379" t="s">
@@ -37666,7 +37669,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A46" s="378" t="s">
+      <c r="A46" s="369" t="s">
         <v>107</v>
       </c>
       <c r="B46" s="379" t="s">
@@ -37705,7 +37708,7 @@
       <c r="P46" s="317"/>
     </row>
     <row r="47" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A47" s="378" t="s">
+      <c r="A47" s="369" t="s">
         <v>108</v>
       </c>
       <c r="B47" s="379" t="s">
@@ -37744,7 +37747,7 @@
       <c r="P47" s="317"/>
     </row>
     <row r="48" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A48" s="378" t="s">
+      <c r="A48" s="369" t="s">
         <v>109</v>
       </c>
       <c r="B48" s="379" t="s">
@@ -37789,7 +37792,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A49" s="386" t="s">
+      <c r="A49" s="369" t="s">
         <v>110</v>
       </c>
       <c r="B49" s="387" t="s">
@@ -37813,7 +37816,7 @@
       <c r="N49" s="321"/>
     </row>
     <row r="50" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A50" s="386" t="s">
+      <c r="A50" s="369" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="387" t="s">
@@ -37862,7 +37865,7 @@
       </c>
     </row>
     <row r="51" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A51" s="386" t="s">
+      <c r="A51" s="369" t="s">
         <v>115</v>
       </c>
       <c r="B51" s="387" t="s">
@@ -37911,7 +37914,7 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A52" s="386" t="s">
+      <c r="A52" s="369" t="s">
         <v>117</v>
       </c>
       <c r="B52" s="387" t="s">
@@ -37960,7 +37963,7 @@
       </c>
     </row>
     <row r="53" spans="1:20" ht="17">
-      <c r="A53" s="386" t="s">
+      <c r="A53" s="369" t="s">
         <v>119</v>
       </c>
       <c r="B53" s="387" t="s">
@@ -38009,7 +38012,7 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="17">
-      <c r="A54" s="386" t="s">
+      <c r="A54" s="369" t="s">
         <v>121</v>
       </c>
       <c r="B54" s="387" t="s">
@@ -38058,7 +38061,7 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="17">
-      <c r="A55" s="386" t="s">
+      <c r="A55" s="369" t="s">
         <v>124</v>
       </c>
       <c r="B55" s="387" t="s">
@@ -38107,7 +38110,7 @@
       </c>
     </row>
     <row r="56" spans="1:20" ht="17">
-      <c r="A56" s="386" t="s">
+      <c r="A56" s="369" t="s">
         <v>128</v>
       </c>
       <c r="B56" s="387" t="s">
@@ -38132,7 +38135,7 @@
       <c r="T56" s="326"/>
     </row>
     <row r="57" spans="1:20" ht="17">
-      <c r="A57" s="386" t="s">
+      <c r="A57" s="369" t="s">
         <v>130</v>
       </c>
       <c r="B57" s="387" t="s">
@@ -38181,7 +38184,7 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="17">
-      <c r="A58" s="386" t="s">
+      <c r="A58" s="369" t="s">
         <v>133</v>
       </c>
       <c r="B58" s="387" t="s">
@@ -38230,7 +38233,7 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="17">
-      <c r="A59" s="386" t="s">
+      <c r="A59" s="369" t="s">
         <v>135</v>
       </c>
       <c r="B59" s="387" t="s">
@@ -38279,7 +38282,7 @@
       </c>
     </row>
     <row r="60" spans="1:20" ht="17">
-      <c r="A60" s="386" t="s">
+      <c r="A60" s="369" t="s">
         <v>138</v>
       </c>
       <c r="B60" s="387" t="s">
@@ -38328,7 +38331,7 @@
       </c>
     </row>
     <row r="61" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A61" s="390" t="s">
+      <c r="A61" s="369" t="s">
         <v>140</v>
       </c>
       <c r="B61" s="387" t="s">
@@ -38353,7 +38356,7 @@
       <c r="T61" s="326"/>
     </row>
     <row r="62" spans="1:20" ht="17">
-      <c r="A62" s="390" t="s">
+      <c r="A62" s="369" t="s">
         <v>142</v>
       </c>
       <c r="B62" s="387" t="s">
@@ -38402,7 +38405,7 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="17">
-      <c r="A63" s="390" t="s">
+      <c r="A63" s="369" t="s">
         <v>144</v>
       </c>
       <c r="B63" s="387" t="s">
@@ -38451,7 +38454,7 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="17">
-      <c r="A64" s="390" t="s">
+      <c r="A64" s="369" t="s">
         <v>146</v>
       </c>
       <c r="B64" s="387" t="s">
@@ -38500,7 +38503,7 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="17">
-      <c r="A65" s="390" t="s">
+      <c r="A65" s="369" t="s">
         <v>149</v>
       </c>
       <c r="B65" s="387" t="s">
@@ -38549,7 +38552,7 @@
       </c>
     </row>
     <row r="66" spans="1:20" ht="17">
-      <c r="A66" s="390" t="s">
+      <c r="A66" s="369" t="s">
         <v>152</v>
       </c>
       <c r="B66" s="387" t="s">
@@ -38598,7 +38601,7 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="17">
-      <c r="A67" s="390" t="s">
+      <c r="A67" s="369" t="s">
         <v>154</v>
       </c>
       <c r="B67" s="387" t="s">
@@ -38647,7 +38650,7 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="17">
-      <c r="A68" s="390" t="s">
+      <c r="A68" s="369" t="s">
         <v>156</v>
       </c>
       <c r="B68" s="387" t="s">
@@ -38672,7 +38675,7 @@
       <c r="T68" s="326"/>
     </row>
     <row r="69" spans="1:20" ht="17">
-      <c r="A69" s="390" t="s">
+      <c r="A69" s="369" t="s">
         <v>160</v>
       </c>
       <c r="B69" s="387" t="s">
@@ -38721,7 +38724,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" customHeight="1">
-      <c r="A70" s="390" t="s">
+      <c r="A70" s="369" t="s">
         <v>161</v>
       </c>
       <c r="B70" s="387" t="s">
@@ -38770,7 +38773,7 @@
       </c>
     </row>
     <row r="71" spans="1:20" ht="17">
-      <c r="A71" s="390" t="s">
+      <c r="A71" s="369" t="s">
         <v>162</v>
       </c>
       <c r="B71" s="387" t="s">
@@ -38819,7 +38822,7 @@
       </c>
     </row>
     <row r="72" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A72" s="390" t="s">
+      <c r="A72" s="369" t="s">
         <v>163</v>
       </c>
       <c r="B72" s="387" t="s">
@@ -38868,7 +38871,7 @@
       </c>
     </row>
     <row r="73" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A73" s="386" t="s">
+      <c r="A73" s="369" t="s">
         <v>164</v>
       </c>
       <c r="B73" s="387" t="s">
@@ -38917,7 +38920,7 @@
       </c>
     </row>
     <row r="74" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A74" s="386" t="s">
+      <c r="A74" s="369" t="s">
         <v>165</v>
       </c>
       <c r="B74" s="387" t="s">
@@ -38966,7 +38969,7 @@
       </c>
     </row>
     <row r="75" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A75" s="386" t="s">
+      <c r="A75" s="369" t="s">
         <v>166</v>
       </c>
       <c r="B75" s="387" t="s">
@@ -39004,7 +39007,7 @@
       <c r="T75" s="326"/>
     </row>
     <row r="76" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A76" s="386" t="s">
+      <c r="A76" s="369" t="s">
         <v>168</v>
       </c>
       <c r="B76" s="387" t="s">
@@ -39042,7 +39045,7 @@
       <c r="T76" s="326"/>
     </row>
     <row r="77" spans="1:20" ht="17">
-      <c r="A77" s="386" t="s">
+      <c r="A77" s="369" t="s">
         <v>170</v>
       </c>
       <c r="B77" s="387" t="s">
@@ -39091,7 +39094,7 @@
       </c>
     </row>
     <row r="78" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A78" s="390" t="s">
+      <c r="A78" s="369" t="s">
         <v>172</v>
       </c>
       <c r="B78" s="387" t="s">
@@ -39140,7 +39143,7 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="17">
-      <c r="A79" s="390" t="s">
+      <c r="A79" s="369" t="s">
         <v>174</v>
       </c>
       <c r="B79" s="387" t="s">
@@ -39189,7 +39192,7 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="17">
-      <c r="A80" s="390" t="s">
+      <c r="A80" s="369" t="s">
         <v>178</v>
       </c>
       <c r="B80" s="387" t="s">
@@ -39238,7 +39241,7 @@
       </c>
     </row>
     <row r="81" spans="1:20" ht="17">
-      <c r="A81" s="390" t="s">
+      <c r="A81" s="369" t="s">
         <v>180</v>
       </c>
       <c r="B81" s="387" t="s">
@@ -39276,7 +39279,7 @@
       <c r="T81" s="326"/>
     </row>
     <row r="82" spans="1:20" ht="17">
-      <c r="A82" s="386" t="s">
+      <c r="A82" s="369" t="s">
         <v>183</v>
       </c>
       <c r="B82" s="387" t="s">
@@ -39316,7 +39319,7 @@
       <c r="T82" s="326"/>
     </row>
     <row r="83" spans="1:20" ht="17">
-      <c r="A83" s="386" t="s">
+      <c r="A83" s="369" t="s">
         <v>185</v>
       </c>
       <c r="B83" s="387" t="s">
@@ -39364,7 +39367,7 @@
       </c>
     </row>
     <row r="84" spans="1:20" ht="17">
-      <c r="A84" s="386" t="s">
+      <c r="A84" s="369" t="s">
         <v>188</v>
       </c>
       <c r="B84" s="387" t="s">
@@ -39412,7 +39415,7 @@
       </c>
     </row>
     <row r="85" spans="1:20" ht="17">
-      <c r="A85" s="386" t="s">
+      <c r="A85" s="369" t="s">
         <v>190</v>
       </c>
       <c r="B85" s="387" t="s">
@@ -39460,7 +39463,7 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="17">
-      <c r="A86" s="386" t="s">
+      <c r="A86" s="369" t="s">
         <v>192</v>
       </c>
       <c r="B86" s="387" t="s">
@@ -39508,7 +39511,7 @@
       </c>
     </row>
     <row r="87" spans="1:20" ht="17">
-      <c r="A87" s="386" t="s">
+      <c r="A87" s="369" t="s">
         <v>194</v>
       </c>
       <c r="B87" s="387" t="s">
@@ -39556,7 +39559,7 @@
       </c>
     </row>
     <row r="88" spans="1:20" ht="17">
-      <c r="A88" s="386" t="s">
+      <c r="A88" s="369" t="s">
         <v>196</v>
       </c>
       <c r="B88" s="387" t="s">
@@ -39604,7 +39607,7 @@
       </c>
     </row>
     <row r="89" spans="1:20" ht="17">
-      <c r="A89" s="386" t="s">
+      <c r="A89" s="369" t="s">
         <v>198</v>
       </c>
       <c r="B89" s="387" t="s">
@@ -39652,7 +39655,9 @@
       </c>
     </row>
     <row r="90" spans="1:20" ht="17">
-      <c r="A90" s="386"/>
+      <c r="A90" s="369" t="s">
+        <v>200</v>
+      </c>
       <c r="B90" s="387" t="s">
         <v>125</v>
       </c>
@@ -39698,8 +39703,8 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="17">
-      <c r="A91" s="386" t="s">
-        <v>200</v>
+      <c r="A91" s="369" t="s">
+        <v>202</v>
       </c>
       <c r="B91" s="387" t="s">
         <v>125</v>
@@ -39746,8 +39751,8 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="17">
-      <c r="A92" s="390" t="s">
-        <v>202</v>
+      <c r="A92" s="369" t="s">
+        <v>204</v>
       </c>
       <c r="B92" s="387" t="s">
         <v>125</v>
@@ -39785,8 +39790,8 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="17">
-      <c r="A93" s="390" t="s">
-        <v>204</v>
+      <c r="A93" s="369" t="s">
+        <v>206</v>
       </c>
       <c r="B93" s="387" t="s">
         <v>125</v>
@@ -39833,8 +39838,8 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="17">
-      <c r="A94" s="390" t="s">
-        <v>206</v>
+      <c r="A94" s="369" t="s">
+        <v>208</v>
       </c>
       <c r="B94" s="387" t="s">
         <v>125</v>
@@ -39881,8 +39886,8 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A95" s="390" t="s">
-        <v>208</v>
+      <c r="A95" s="369" t="s">
+        <v>210</v>
       </c>
       <c r="B95" s="387" t="s">
         <v>125</v>
@@ -39929,8 +39934,8 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="17">
-      <c r="A96" s="390" t="s">
-        <v>210</v>
+      <c r="A96" s="369" t="s">
+        <v>212</v>
       </c>
       <c r="B96" s="387" t="s">
         <v>125</v>
@@ -39977,8 +39982,8 @@
       </c>
     </row>
     <row r="97" spans="1:20" ht="17">
-      <c r="A97" s="390" t="s">
-        <v>212</v>
+      <c r="A97" s="369" t="s">
+        <v>215</v>
       </c>
       <c r="B97" s="387" t="s">
         <v>125</v>
@@ -40025,8 +40030,8 @@
       </c>
     </row>
     <row r="98" spans="1:20" ht="17">
-      <c r="A98" s="390" t="s">
-        <v>215</v>
+      <c r="A98" s="369" t="s">
+        <v>217</v>
       </c>
       <c r="B98" s="387" t="s">
         <v>125</v>
@@ -40073,8 +40078,8 @@
       </c>
     </row>
     <row r="99" spans="1:20" ht="17">
-      <c r="A99" s="390" t="s">
-        <v>217</v>
+      <c r="A99" s="369" t="s">
+        <v>219</v>
       </c>
       <c r="B99" s="387" t="s">
         <v>125</v>
@@ -40121,8 +40126,8 @@
       </c>
     </row>
     <row r="100" spans="1:20" ht="17">
-      <c r="A100" s="390" t="s">
-        <v>219</v>
+      <c r="A100" s="369" t="s">
+        <v>221</v>
       </c>
       <c r="B100" s="387" t="s">
         <v>125</v>
@@ -40169,8 +40174,8 @@
       </c>
     </row>
     <row r="101" spans="1:20" ht="17">
-      <c r="A101" s="390" t="s">
-        <v>221</v>
+      <c r="A101" s="369" t="s">
+        <v>223</v>
       </c>
       <c r="B101" s="387" t="s">
         <v>125</v>
@@ -40217,8 +40222,8 @@
       </c>
     </row>
     <row r="102" spans="1:20" ht="17">
-      <c r="A102" s="390" t="s">
-        <v>223</v>
+      <c r="A102" s="369" t="s">
+        <v>225</v>
       </c>
       <c r="B102" s="387" t="s">
         <v>125</v>
@@ -40265,8 +40270,8 @@
       </c>
     </row>
     <row r="103" spans="1:20" ht="17">
-      <c r="A103" s="386" t="s">
-        <v>225</v>
+      <c r="A103" s="369" t="s">
+        <v>227</v>
       </c>
       <c r="B103" s="387" t="s">
         <v>125</v>
@@ -40313,8 +40318,8 @@
       </c>
     </row>
     <row r="104" spans="1:20" ht="17">
-      <c r="A104" s="386" t="s">
-        <v>227</v>
+      <c r="A104" s="369" t="s">
+        <v>229</v>
       </c>
       <c r="B104" s="387" t="s">
         <v>125</v>
@@ -40361,8 +40366,8 @@
       </c>
     </row>
     <row r="105" spans="1:20" ht="17">
-      <c r="A105" s="386" t="s">
-        <v>229</v>
+      <c r="A105" s="369" t="s">
+        <v>231</v>
       </c>
       <c r="B105" s="387" t="s">
         <v>125</v>
@@ -40409,8 +40414,8 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="17">
-      <c r="A106" s="386" t="s">
-        <v>231</v>
+      <c r="A106" s="369" t="s">
+        <v>233</v>
       </c>
       <c r="B106" s="387" t="s">
         <v>125</v>
@@ -40457,8 +40462,8 @@
       </c>
     </row>
     <row r="107" spans="1:20" ht="17">
-      <c r="A107" s="386" t="s">
-        <v>233</v>
+      <c r="A107" s="369" t="s">
+        <v>235</v>
       </c>
       <c r="B107" s="387" t="s">
         <v>125</v>
@@ -40505,8 +40510,8 @@
       </c>
     </row>
     <row r="108" spans="1:20" ht="17">
-      <c r="A108" s="386" t="s">
-        <v>235</v>
+      <c r="A108" s="369" t="s">
+        <v>237</v>
       </c>
       <c r="B108" s="387" t="s">
         <v>125</v>
@@ -40553,8 +40558,8 @@
       </c>
     </row>
     <row r="109" spans="1:20" ht="17">
-      <c r="A109" s="386" t="s">
-        <v>237</v>
+      <c r="A109" s="369" t="s">
+        <v>239</v>
       </c>
       <c r="B109" s="387" t="s">
         <v>125</v>
@@ -40601,8 +40606,8 @@
       </c>
     </row>
     <row r="110" spans="1:20" ht="17">
-      <c r="A110" s="386" t="s">
-        <v>239</v>
+      <c r="A110" s="369" t="s">
+        <v>241</v>
       </c>
       <c r="B110" s="387" t="s">
         <v>125</v>
@@ -40649,8 +40654,8 @@
       </c>
     </row>
     <row r="111" spans="1:20" ht="17">
-      <c r="A111" s="386" t="s">
-        <v>241</v>
+      <c r="A111" s="369" t="s">
+        <v>243</v>
       </c>
       <c r="B111" s="387" t="s">
         <v>125</v>
@@ -40697,8 +40702,8 @@
       </c>
     </row>
     <row r="112" spans="1:20" ht="17">
-      <c r="A112" s="386" t="s">
-        <v>243</v>
+      <c r="A112" s="369" t="s">
+        <v>245</v>
       </c>
       <c r="B112" s="387" t="s">
         <v>125</v>
@@ -40745,8 +40750,8 @@
       </c>
     </row>
     <row r="113" spans="1:20" ht="17">
-      <c r="A113" s="386" t="s">
-        <v>245</v>
+      <c r="A113" s="369" t="s">
+        <v>247</v>
       </c>
       <c r="B113" s="387" t="s">
         <v>125</v>
@@ -40793,8 +40798,8 @@
       </c>
     </row>
     <row r="114" spans="1:20" ht="17">
-      <c r="A114" s="386" t="s">
-        <v>247</v>
+      <c r="A114" s="369" t="s">
+        <v>249</v>
       </c>
       <c r="B114" s="387" t="s">
         <v>125</v>
@@ -40841,8 +40846,8 @@
       </c>
     </row>
     <row r="115" spans="1:20" ht="17">
-      <c r="A115" s="386" t="s">
-        <v>249</v>
+      <c r="A115" s="369" t="s">
+        <v>251</v>
       </c>
       <c r="B115" s="387" t="s">
         <v>125</v>
@@ -40889,8 +40894,8 @@
       </c>
     </row>
     <row r="116" spans="1:20" ht="17">
-      <c r="A116" s="386" t="s">
-        <v>251</v>
+      <c r="A116" s="369" t="s">
+        <v>253</v>
       </c>
       <c r="B116" s="387" t="s">
         <v>125</v>
@@ -40937,8 +40942,8 @@
       </c>
     </row>
     <row r="117" spans="1:20" ht="17">
-      <c r="A117" s="386" t="s">
-        <v>253</v>
+      <c r="A117" s="369" t="s">
+        <v>255</v>
       </c>
       <c r="B117" s="387" t="s">
         <v>125</v>
@@ -40985,8 +40990,8 @@
       </c>
     </row>
     <row r="118" spans="1:20" ht="17">
-      <c r="A118" s="386" t="s">
-        <v>255</v>
+      <c r="A118" s="369" t="s">
+        <v>257</v>
       </c>
       <c r="B118" s="387" t="s">
         <v>125</v>
@@ -41033,8 +41038,8 @@
       </c>
     </row>
     <row r="119" spans="1:20" ht="17">
-      <c r="A119" s="386" t="s">
-        <v>257</v>
+      <c r="A119" s="369" t="s">
+        <v>258</v>
       </c>
       <c r="B119" s="387" t="s">
         <v>125</v>
@@ -41081,8 +41086,8 @@
       </c>
     </row>
     <row r="120" spans="1:20" ht="17">
-      <c r="A120" s="390" t="s">
-        <v>258</v>
+      <c r="A120" s="369" t="s">
+        <v>260</v>
       </c>
       <c r="B120" s="387" t="s">
         <v>125</v>
@@ -41129,8 +41134,8 @@
       </c>
     </row>
     <row r="121" spans="1:20" ht="17">
-      <c r="A121" s="390" t="s">
-        <v>260</v>
+      <c r="A121" s="369" t="s">
+        <v>262</v>
       </c>
       <c r="B121" s="387" t="s">
         <v>125</v>
@@ -41177,8 +41182,8 @@
       </c>
     </row>
     <row r="122" spans="1:20" ht="17">
-      <c r="A122" s="390" t="s">
-        <v>262</v>
+      <c r="A122" s="369" t="s">
+        <v>265</v>
       </c>
       <c r="B122" s="387" t="s">
         <v>125</v>
@@ -41225,8 +41230,8 @@
       </c>
     </row>
     <row r="123" spans="1:20" ht="17">
-      <c r="A123" s="390" t="s">
-        <v>265</v>
+      <c r="A123" s="369" t="s">
+        <v>267</v>
       </c>
       <c r="B123" s="387" t="s">
         <v>125</v>
@@ -41273,8 +41278,8 @@
       </c>
     </row>
     <row r="124" spans="1:20" ht="17">
-      <c r="A124" s="390" t="s">
-        <v>267</v>
+      <c r="A124" s="369" t="s">
+        <v>269</v>
       </c>
       <c r="B124" s="387" t="s">
         <v>125</v>
@@ -41321,8 +41326,8 @@
       </c>
     </row>
     <row r="125" spans="1:20" ht="17">
-      <c r="A125" s="390" t="s">
-        <v>269</v>
+      <c r="A125" s="369" t="s">
+        <v>271</v>
       </c>
       <c r="B125" s="387" t="s">
         <v>125</v>
@@ -41369,8 +41374,8 @@
       </c>
     </row>
     <row r="126" spans="1:20" ht="17">
-      <c r="A126" s="390" t="s">
-        <v>271</v>
+      <c r="A126" s="369" t="s">
+        <v>272</v>
       </c>
       <c r="B126" s="387" t="s">
         <v>125</v>
@@ -41417,8 +41422,8 @@
       </c>
     </row>
     <row r="127" spans="1:20" ht="17">
-      <c r="A127" s="390" t="s">
-        <v>272</v>
+      <c r="A127" s="369" t="s">
+        <v>274</v>
       </c>
       <c r="B127" s="387" t="s">
         <v>125</v>
@@ -41465,8 +41470,8 @@
       </c>
     </row>
     <row r="128" spans="1:20" ht="17">
-      <c r="A128" s="390" t="s">
-        <v>274</v>
+      <c r="A128" s="369" t="s">
+        <v>276</v>
       </c>
       <c r="B128" s="387" t="s">
         <v>125</v>
@@ -41513,8 +41518,8 @@
       </c>
     </row>
     <row r="129" spans="1:20" ht="17">
-      <c r="A129" s="390" t="s">
-        <v>276</v>
+      <c r="A129" s="369" t="s">
+        <v>278</v>
       </c>
       <c r="B129" s="387" t="s">
         <v>125</v>
@@ -41561,8 +41566,8 @@
       </c>
     </row>
     <row r="130" spans="1:20" ht="17">
-      <c r="A130" s="390" t="s">
-        <v>278</v>
+      <c r="A130" s="369" t="s">
+        <v>280</v>
       </c>
       <c r="B130" s="387" t="s">
         <v>125</v>
@@ -41609,8 +41614,8 @@
       </c>
     </row>
     <row r="131" spans="1:20" ht="17">
-      <c r="A131" s="390" t="s">
-        <v>280</v>
+      <c r="A131" s="369" t="s">
+        <v>282</v>
       </c>
       <c r="B131" s="387" t="s">
         <v>125</v>
@@ -41657,8 +41662,8 @@
       </c>
     </row>
     <row r="132" spans="1:20" ht="17">
-      <c r="A132" s="390" t="s">
-        <v>282</v>
+      <c r="A132" s="369" t="s">
+        <v>285</v>
       </c>
       <c r="B132" s="387" t="s">
         <v>125</v>
@@ -41705,8 +41710,8 @@
       </c>
     </row>
     <row r="133" spans="1:20" ht="17">
-      <c r="A133" s="390" t="s">
-        <v>285</v>
+      <c r="A133" s="369" t="s">
+        <v>288</v>
       </c>
       <c r="B133" s="387" t="s">
         <v>125</v>
@@ -41753,8 +41758,8 @@
       </c>
     </row>
     <row r="134" spans="1:20" ht="17">
-      <c r="A134" s="390" t="s">
-        <v>288</v>
+      <c r="A134" s="369" t="s">
+        <v>290</v>
       </c>
       <c r="B134" s="387" t="s">
         <v>125</v>
@@ -41801,8 +41806,8 @@
       </c>
     </row>
     <row r="135" spans="1:20" ht="17">
-      <c r="A135" s="390" t="s">
-        <v>290</v>
+      <c r="A135" s="369" t="s">
+        <v>291</v>
       </c>
       <c r="B135" s="387" t="s">
         <v>125</v>
@@ -41838,8 +41843,8 @@
       <c r="N135" s="321"/>
     </row>
     <row r="136" spans="1:20" ht="17">
-      <c r="A136" s="390" t="s">
-        <v>291</v>
+      <c r="A136" s="369" t="s">
+        <v>293</v>
       </c>
       <c r="B136" s="387" t="s">
         <v>125</v>
@@ -41875,8 +41880,8 @@
       <c r="N136" s="321"/>
     </row>
     <row r="137" spans="1:20" ht="17">
-      <c r="A137" s="390" t="s">
-        <v>293</v>
+      <c r="A137" s="369" t="s">
+        <v>294</v>
       </c>
       <c r="B137" s="387" t="s">
         <v>125</v>
@@ -41912,8 +41917,8 @@
       <c r="N137" s="321"/>
     </row>
     <row r="138" spans="1:20" ht="17">
-      <c r="A138" s="390" t="s">
-        <v>294</v>
+      <c r="A138" s="369" t="s">
+        <v>295</v>
       </c>
       <c r="B138" s="387" t="s">
         <v>125</v>
@@ -41957,8 +41962,8 @@
       </c>
     </row>
     <row r="139" spans="1:20" ht="17">
-      <c r="A139" s="390" t="s">
-        <v>295</v>
+      <c r="A139" s="369" t="s">
+        <v>296</v>
       </c>
       <c r="B139" s="387" t="s">
         <v>125</v>
@@ -42002,8 +42007,8 @@
       </c>
     </row>
     <row r="140" spans="1:20" ht="17">
-      <c r="A140" s="390" t="s">
-        <v>296</v>
+      <c r="A140" s="369" t="s">
+        <v>297</v>
       </c>
       <c r="B140" s="387" t="s">
         <v>125</v>
@@ -42047,8 +42052,8 @@
       </c>
     </row>
     <row r="141" spans="1:20" ht="17">
-      <c r="A141" s="390" t="s">
-        <v>297</v>
+      <c r="A141" s="369" t="s">
+        <v>298</v>
       </c>
       <c r="B141" s="387" t="s">
         <v>125</v>
@@ -42092,8 +42097,8 @@
       </c>
     </row>
     <row r="142" spans="1:20" ht="17">
-      <c r="A142" s="390" t="s">
-        <v>298</v>
+      <c r="A142" s="369" t="s">
+        <v>299</v>
       </c>
       <c r="B142" s="387" t="s">
         <v>125</v>
@@ -42137,8 +42142,8 @@
       </c>
     </row>
     <row r="143" spans="1:20" ht="17">
-      <c r="A143" s="390" t="s">
-        <v>299</v>
+      <c r="A143" s="369" t="s">
+        <v>300</v>
       </c>
       <c r="B143" s="387" t="s">
         <v>125</v>
@@ -42182,8 +42187,8 @@
       </c>
     </row>
     <row r="144" spans="1:20" ht="17">
-      <c r="A144" s="390" t="s">
-        <v>300</v>
+      <c r="A144" s="369" t="s">
+        <v>301</v>
       </c>
       <c r="B144" s="387" t="s">
         <v>125</v>
@@ -42227,8 +42232,8 @@
       </c>
     </row>
     <row r="145" spans="1:18" ht="17">
-      <c r="A145" s="390" t="s">
-        <v>301</v>
+      <c r="A145" s="369" t="s">
+        <v>302</v>
       </c>
       <c r="B145" s="387" t="s">
         <v>125</v>
@@ -42272,8 +42277,8 @@
       </c>
     </row>
     <row r="146" spans="1:18" ht="17">
-      <c r="A146" s="390" t="s">
-        <v>302</v>
+      <c r="A146" s="369" t="s">
+        <v>304</v>
       </c>
       <c r="B146" s="387" t="s">
         <v>125</v>
@@ -42317,8 +42322,8 @@
       </c>
     </row>
     <row r="147" spans="1:18" ht="17">
-      <c r="A147" s="390" t="s">
-        <v>304</v>
+      <c r="A147" s="369" t="s">
+        <v>305</v>
       </c>
       <c r="B147" s="387" t="s">
         <v>125</v>
@@ -42362,8 +42367,8 @@
       </c>
     </row>
     <row r="148" spans="1:18" ht="17">
-      <c r="A148" s="390" t="s">
-        <v>305</v>
+      <c r="A148" s="369" t="s">
+        <v>306</v>
       </c>
       <c r="B148" s="387" t="s">
         <v>125</v>
@@ -42407,8 +42412,8 @@
       </c>
     </row>
     <row r="149" spans="1:18" ht="17">
-      <c r="A149" s="390" t="s">
-        <v>306</v>
+      <c r="A149" s="369" t="s">
+        <v>307</v>
       </c>
       <c r="B149" s="387" t="s">
         <v>125</v>
@@ -42452,8 +42457,8 @@
       </c>
     </row>
     <row r="150" spans="1:18" ht="17">
-      <c r="A150" s="390" t="s">
-        <v>307</v>
+      <c r="A150" s="369" t="s">
+        <v>308</v>
       </c>
       <c r="B150" s="387" t="s">
         <v>125</v>
@@ -42497,8 +42502,8 @@
       </c>
     </row>
     <row r="151" spans="1:18" ht="17">
-      <c r="A151" s="390" t="s">
-        <v>308</v>
+      <c r="A151" s="369" t="s">
+        <v>309</v>
       </c>
       <c r="B151" s="387" t="s">
         <v>125</v>
@@ -42542,8 +42547,8 @@
       </c>
     </row>
     <row r="152" spans="1:18" ht="17">
-      <c r="A152" s="390" t="s">
-        <v>309</v>
+      <c r="A152" s="369" t="s">
+        <v>310</v>
       </c>
       <c r="B152" s="387" t="s">
         <v>125</v>
@@ -42587,8 +42592,8 @@
       </c>
     </row>
     <row r="153" spans="1:18" ht="17">
-      <c r="A153" s="386" t="s">
-        <v>310</v>
+      <c r="A153" s="369" t="s">
+        <v>311</v>
       </c>
       <c r="B153" s="387" t="s">
         <v>125</v>
@@ -42611,8 +42616,8 @@
       <c r="N153" s="321"/>
     </row>
     <row r="154" spans="1:18" ht="17">
-      <c r="A154" s="386" t="s">
-        <v>311</v>
+      <c r="A154" s="369" t="s">
+        <v>313</v>
       </c>
       <c r="B154" s="387" t="s">
         <v>125</v>
@@ -42657,8 +42662,8 @@
       <c r="Q154" s="300"/>
     </row>
     <row r="155" spans="1:18" ht="17">
-      <c r="A155" s="386" t="s">
-        <v>313</v>
+      <c r="A155" s="369" t="s">
+        <v>314</v>
       </c>
       <c r="B155" s="387" t="s">
         <v>125</v>
@@ -42702,8 +42707,8 @@
       </c>
     </row>
     <row r="156" spans="1:18" ht="17">
-      <c r="A156" s="386" t="s">
-        <v>314</v>
+      <c r="A156" s="369" t="s">
+        <v>315</v>
       </c>
       <c r="B156" s="387" t="s">
         <v>125</v>
@@ -42753,8 +42758,8 @@
       </c>
     </row>
     <row r="157" spans="1:18" ht="17">
-      <c r="A157" s="386" t="s">
-        <v>315</v>
+      <c r="A157" s="369" t="s">
+        <v>317</v>
       </c>
       <c r="B157" s="387" t="s">
         <v>125</v>
@@ -42799,8 +42804,8 @@
       <c r="Q157" s="325"/>
     </row>
     <row r="158" spans="1:18" ht="17">
-      <c r="A158" s="386" t="s">
-        <v>317</v>
+      <c r="A158" s="369" t="s">
+        <v>318</v>
       </c>
       <c r="B158" s="387" t="s">
         <v>125</v>
@@ -42845,8 +42850,8 @@
       <c r="Q158" s="300"/>
     </row>
     <row r="159" spans="1:18" ht="17">
-      <c r="A159" s="386" t="s">
-        <v>318</v>
+      <c r="A159" s="369" t="s">
+        <v>319</v>
       </c>
       <c r="B159" s="387" t="s">
         <v>125</v>
@@ -42891,8 +42896,8 @@
       <c r="Q159" s="300"/>
     </row>
     <row r="160" spans="1:18" ht="17">
-      <c r="A160" s="386" t="s">
-        <v>319</v>
+      <c r="A160" s="369" t="s">
+        <v>320</v>
       </c>
       <c r="B160" s="387" t="s">
         <v>125</v>
@@ -42937,8 +42942,8 @@
       <c r="Q160" s="325"/>
     </row>
     <row r="161" spans="1:19" ht="17">
-      <c r="A161" s="386" t="s">
-        <v>320</v>
+      <c r="A161" s="369" t="s">
+        <v>321</v>
       </c>
       <c r="B161" s="387" t="s">
         <v>125</v>
@@ -42961,8 +42966,8 @@
       <c r="N161" s="321"/>
     </row>
     <row r="162" spans="1:19" ht="17">
-      <c r="A162" s="386" t="s">
-        <v>321</v>
+      <c r="A162" s="369" t="s">
+        <v>323</v>
       </c>
       <c r="B162" s="387" t="s">
         <v>125</v>
@@ -43006,8 +43011,8 @@
       </c>
     </row>
     <row r="163" spans="1:19" ht="17">
-      <c r="A163" s="386" t="s">
-        <v>323</v>
+      <c r="A163" s="369" t="s">
+        <v>324</v>
       </c>
       <c r="B163" s="387" t="s">
         <v>125</v>
@@ -43051,8 +43056,8 @@
       </c>
     </row>
     <row r="164" spans="1:19" ht="17">
-      <c r="A164" s="386" t="s">
-        <v>324</v>
+      <c r="A164" s="369" t="s">
+        <v>326</v>
       </c>
       <c r="B164" s="387" t="s">
         <v>125</v>
@@ -43105,8 +43110,8 @@
       </c>
     </row>
     <row r="165" spans="1:19" ht="17">
-      <c r="A165" s="386" t="s">
-        <v>326</v>
+      <c r="A165" s="369" t="s">
+        <v>327</v>
       </c>
       <c r="B165" s="387" t="s">
         <v>125</v>
@@ -43150,8 +43155,8 @@
       </c>
     </row>
     <row r="166" spans="1:19" ht="17">
-      <c r="A166" s="386" t="s">
-        <v>327</v>
+      <c r="A166" s="369" t="s">
+        <v>329</v>
       </c>
       <c r="B166" s="387" t="s">
         <v>125</v>
@@ -43195,8 +43200,8 @@
       </c>
     </row>
     <row r="167" spans="1:19" ht="17">
-      <c r="A167" s="386" t="s">
-        <v>329</v>
+      <c r="A167" s="369" t="s">
+        <v>330</v>
       </c>
       <c r="B167" s="387" t="s">
         <v>125</v>
@@ -43240,8 +43245,8 @@
       </c>
     </row>
     <row r="168" spans="1:19" ht="17">
-      <c r="A168" s="386" t="s">
-        <v>330</v>
+      <c r="A168" s="369" t="s">
+        <v>332</v>
       </c>
       <c r="B168" s="387" t="s">
         <v>125</v>
@@ -43285,8 +43290,8 @@
       </c>
     </row>
     <row r="169" spans="1:19" ht="17">
-      <c r="A169" s="386" t="s">
-        <v>332</v>
+      <c r="A169" s="369" t="s">
+        <v>333</v>
       </c>
       <c r="B169" s="387" t="s">
         <v>125</v>
@@ -43309,8 +43314,8 @@
       <c r="N169" s="321"/>
     </row>
     <row r="170" spans="1:19" ht="17">
-      <c r="A170" s="386" t="s">
-        <v>333</v>
+      <c r="A170" s="369" t="s">
+        <v>335</v>
       </c>
       <c r="B170" s="387" t="s">
         <v>125</v>
@@ -43354,8 +43359,8 @@
       </c>
     </row>
     <row r="171" spans="1:19" ht="17">
-      <c r="A171" s="386" t="s">
-        <v>335</v>
+      <c r="A171" s="369" t="s">
+        <v>336</v>
       </c>
       <c r="B171" s="387" t="s">
         <v>125</v>
@@ -43399,8 +43404,8 @@
       </c>
     </row>
     <row r="172" spans="1:19" ht="17">
-      <c r="A172" s="386" t="s">
-        <v>336</v>
+      <c r="A172" s="369" t="s">
+        <v>337</v>
       </c>
       <c r="B172" s="387" t="s">
         <v>125</v>
@@ -43453,8 +43458,8 @@
       </c>
     </row>
     <row r="173" spans="1:19" ht="17">
-      <c r="A173" s="386" t="s">
-        <v>337</v>
+      <c r="A173" s="369" t="s">
+        <v>338</v>
       </c>
       <c r="B173" s="387" t="s">
         <v>125</v>
@@ -43498,8 +43503,8 @@
       </c>
     </row>
     <row r="174" spans="1:19" ht="17">
-      <c r="A174" s="386" t="s">
-        <v>338</v>
+      <c r="A174" s="369" t="s">
+        <v>340</v>
       </c>
       <c r="B174" s="387" t="s">
         <v>125</v>
@@ -43543,8 +43548,8 @@
       </c>
     </row>
     <row r="175" spans="1:19" ht="17">
-      <c r="A175" s="386" t="s">
-        <v>340</v>
+      <c r="A175" s="369" t="s">
+        <v>341</v>
       </c>
       <c r="B175" s="387" t="s">
         <v>125</v>
@@ -43588,8 +43593,8 @@
       </c>
     </row>
     <row r="176" spans="1:19" ht="17">
-      <c r="A176" s="386" t="s">
-        <v>341</v>
+      <c r="A176" s="369" t="s">
+        <v>342</v>
       </c>
       <c r="B176" s="387" t="s">
         <v>125</v>
@@ -43633,16 +43638,16 @@
       </c>
     </row>
     <row r="177" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A177" s="401" t="s">
-        <v>342</v>
-      </c>
-      <c r="B177" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C177" s="403" t="s">
+      <c r="A177" s="369" t="s">
+        <v>343</v>
+      </c>
+      <c r="B177" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C177" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D177" s="404" t="s">
+      <c r="D177" s="403" t="s">
         <v>312</v>
       </c>
       <c r="E177" s="381"/>
@@ -43659,16 +43664,16 @@
       <c r="T177" s="338"/>
     </row>
     <row r="178" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A178" s="401" t="s">
-        <v>343</v>
-      </c>
-      <c r="B178" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C178" s="403" t="s">
+      <c r="A178" s="369" t="s">
+        <v>344</v>
+      </c>
+      <c r="B178" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C178" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D178" s="404" t="s">
+      <c r="D178" s="403" t="s">
         <v>281</v>
       </c>
       <c r="E178" s="381" t="s">
@@ -43698,16 +43703,16 @@
       <c r="T178" s="338"/>
     </row>
     <row r="179" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A179" s="401" t="s">
-        <v>344</v>
-      </c>
-      <c r="B179" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C179" s="403" t="s">
+      <c r="A179" s="369" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C179" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D179" s="404" t="s">
+      <c r="D179" s="403" t="s">
         <v>283</v>
       </c>
       <c r="E179" s="381" t="s">
@@ -43737,16 +43742,16 @@
       <c r="T179" s="338"/>
     </row>
     <row r="180" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A180" s="401" t="s">
-        <v>345</v>
-      </c>
-      <c r="B180" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C180" s="403" t="s">
+      <c r="A180" s="369" t="s">
+        <v>347</v>
+      </c>
+      <c r="B180" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C180" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D180" s="405" t="s">
+      <c r="D180" s="404" t="s">
         <v>286</v>
       </c>
       <c r="E180" s="381" t="s">
@@ -43776,16 +43781,16 @@
       <c r="T180" s="338"/>
     </row>
     <row r="181" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A181" s="401" t="s">
-        <v>347</v>
-      </c>
-      <c r="B181" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C181" s="403" t="s">
+      <c r="A181" s="369" t="s">
+        <v>350</v>
+      </c>
+      <c r="B181" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C181" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D181" s="404" t="s">
+      <c r="D181" s="403" t="s">
         <v>328</v>
       </c>
       <c r="E181" s="381">
@@ -43815,16 +43820,16 @@
       <c r="T181" s="338"/>
     </row>
     <row r="182" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A182" s="401" t="s">
-        <v>350</v>
-      </c>
-      <c r="B182" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C182" s="403" t="s">
+      <c r="A182" s="369" t="s">
+        <v>352</v>
+      </c>
+      <c r="B182" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C182" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D182" s="404" t="s">
+      <c r="D182" s="403" t="s">
         <v>268</v>
       </c>
       <c r="E182" s="381">
@@ -43854,16 +43859,16 @@
       <c r="T182" s="338"/>
     </row>
     <row r="183" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A183" s="401" t="s">
-        <v>352</v>
-      </c>
-      <c r="B183" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C183" s="403" t="s">
+      <c r="A183" s="369" t="s">
+        <v>355</v>
+      </c>
+      <c r="B183" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C183" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D183" s="404" t="s">
+      <c r="D183" s="403" t="s">
         <v>292</v>
       </c>
       <c r="E183" s="381">
@@ -43893,16 +43898,16 @@
       <c r="T183" s="338"/>
     </row>
     <row r="184" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A184" s="401" t="s">
-        <v>355</v>
-      </c>
-      <c r="B184" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C184" s="403" t="s">
+      <c r="A184" s="369" t="s">
+        <v>357</v>
+      </c>
+      <c r="B184" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C184" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D184" s="404" t="s">
+      <c r="D184" s="403" t="s">
         <v>268</v>
       </c>
       <c r="E184" s="381">
@@ -43932,8 +43937,8 @@
       <c r="T184" s="338"/>
     </row>
     <row r="185" spans="1:20" ht="17">
-      <c r="A185" s="386" t="s">
-        <v>357</v>
+      <c r="A185" s="369" t="s">
+        <v>360</v>
       </c>
       <c r="B185" s="387" t="s">
         <v>125</v>
@@ -43956,8 +43961,8 @@
       <c r="N185" s="321"/>
     </row>
     <row r="186" spans="1:20" ht="17">
-      <c r="A186" s="386" t="s">
-        <v>360</v>
+      <c r="A186" s="369" t="s">
+        <v>363</v>
       </c>
       <c r="B186" s="387" t="s">
         <v>125</v>
@@ -44001,8 +44006,8 @@
       </c>
     </row>
     <row r="187" spans="1:20" ht="17">
-      <c r="A187" s="386" t="s">
-        <v>363</v>
+      <c r="A187" s="369" t="s">
+        <v>366</v>
       </c>
       <c r="B187" s="387" t="s">
         <v>125</v>
@@ -44046,8 +44051,8 @@
       </c>
     </row>
     <row r="188" spans="1:20" ht="17">
-      <c r="A188" s="386" t="s">
-        <v>366</v>
+      <c r="A188" s="369" t="s">
+        <v>368</v>
       </c>
       <c r="B188" s="387" t="s">
         <v>125</v>
@@ -44100,8 +44105,8 @@
       </c>
     </row>
     <row r="189" spans="1:20" ht="17">
-      <c r="A189" s="386" t="s">
-        <v>368</v>
+      <c r="A189" s="369" t="s">
+        <v>370</v>
       </c>
       <c r="B189" s="387" t="s">
         <v>125</v>
@@ -44145,7 +44150,9 @@
       </c>
     </row>
     <row r="190" spans="1:20" ht="17">
-      <c r="A190" s="386"/>
+      <c r="A190" s="369" t="s">
+        <v>371</v>
+      </c>
       <c r="B190" s="387" t="s">
         <v>125</v>
       </c>
@@ -44188,8 +44195,8 @@
       </c>
     </row>
     <row r="191" spans="1:20" ht="17">
-      <c r="A191" s="386" t="s">
-        <v>371</v>
+      <c r="A191" s="369" t="s">
+        <v>373</v>
       </c>
       <c r="B191" s="387" t="s">
         <v>125</v>
@@ -44212,8 +44219,8 @@
       <c r="N191" s="321"/>
     </row>
     <row r="192" spans="1:20" ht="17">
-      <c r="A192" s="386" t="s">
-        <v>373</v>
+      <c r="A192" s="369" t="s">
+        <v>375</v>
       </c>
       <c r="B192" s="387" t="s">
         <v>125</v>
@@ -44257,8 +44264,8 @@
       </c>
     </row>
     <row r="193" spans="1:20" ht="17">
-      <c r="A193" s="386" t="s">
-        <v>375</v>
+      <c r="A193" s="369" t="s">
+        <v>377</v>
       </c>
       <c r="B193" s="387" t="s">
         <v>125</v>
@@ -44302,8 +44309,8 @@
       </c>
     </row>
     <row r="194" spans="1:20" ht="17">
-      <c r="A194" s="386" t="s">
-        <v>377</v>
+      <c r="A194" s="369" t="s">
+        <v>380</v>
       </c>
       <c r="B194" s="387" t="s">
         <v>125</v>
@@ -44356,8 +44363,8 @@
       </c>
     </row>
     <row r="195" spans="1:20" ht="17">
-      <c r="A195" s="386" t="s">
-        <v>380</v>
+      <c r="A195" s="369" t="s">
+        <v>383</v>
       </c>
       <c r="B195" s="387" t="s">
         <v>125</v>
@@ -44401,8 +44408,8 @@
       </c>
     </row>
     <row r="196" spans="1:20" ht="17">
-      <c r="A196" s="386" t="s">
-        <v>383</v>
+      <c r="A196" s="369" t="s">
+        <v>386</v>
       </c>
       <c r="B196" s="387" t="s">
         <v>125</v>
@@ -44446,16 +44453,16 @@
       </c>
     </row>
     <row r="197" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A197" s="401" t="s">
-        <v>386</v>
-      </c>
-      <c r="B197" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C197" s="403" t="s">
+      <c r="A197" s="369" t="s">
+        <v>389</v>
+      </c>
+      <c r="B197" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C197" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D197" s="404" t="s">
+      <c r="D197" s="403" t="s">
         <v>339</v>
       </c>
       <c r="E197" s="381"/>
@@ -44472,16 +44479,16 @@
       <c r="T197" s="338"/>
     </row>
     <row r="198" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A198" s="401" t="s">
-        <v>389</v>
-      </c>
-      <c r="B198" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C198" s="403" t="s">
+      <c r="A198" s="369" t="s">
+        <v>392</v>
+      </c>
+      <c r="B198" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C198" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D198" s="404" t="s">
+      <c r="D198" s="403" t="s">
         <v>281</v>
       </c>
       <c r="E198" s="381" t="s">
@@ -44511,16 +44518,16 @@
       <c r="T198" s="338"/>
     </row>
     <row r="199" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A199" s="401" t="s">
-        <v>392</v>
-      </c>
-      <c r="B199" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C199" s="403" t="s">
+      <c r="A199" s="369" t="s">
+        <v>395</v>
+      </c>
+      <c r="B199" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C199" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D199" s="404" t="s">
+      <c r="D199" s="403" t="s">
         <v>283</v>
       </c>
       <c r="E199" s="381" t="s">
@@ -44550,16 +44557,16 @@
       <c r="T199" s="338"/>
     </row>
     <row r="200" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A200" s="401" t="s">
-        <v>395</v>
-      </c>
-      <c r="B200" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C200" s="403" t="s">
+      <c r="A200" s="369" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C200" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D200" s="405" t="s">
+      <c r="D200" s="404" t="s">
         <v>286</v>
       </c>
       <c r="E200" s="381" t="s">
@@ -44589,16 +44596,16 @@
       <c r="T200" s="338"/>
     </row>
     <row r="201" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A201" s="401" t="s">
-        <v>398</v>
-      </c>
-      <c r="B201" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C201" s="403" t="s">
+      <c r="A201" s="369" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C201" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D201" s="404" t="s">
+      <c r="D201" s="403" t="s">
         <v>292</v>
       </c>
       <c r="E201" s="381">
@@ -44628,16 +44635,16 @@
       <c r="T201" s="338"/>
     </row>
     <row r="202" spans="1:20" s="302" customFormat="1" ht="17">
-      <c r="A202" s="401" t="s">
-        <v>400</v>
-      </c>
-      <c r="B202" s="402" t="s">
-        <v>125</v>
-      </c>
-      <c r="C202" s="403" t="s">
+      <c r="A202" s="369" t="s">
+        <v>403</v>
+      </c>
+      <c r="B202" s="401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C202" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="D202" s="404" t="s">
+      <c r="D202" s="403" t="s">
         <v>268</v>
       </c>
       <c r="E202" s="381">
@@ -44667,8 +44674,8 @@
       <c r="T202" s="338"/>
     </row>
     <row r="203" spans="1:20" ht="17">
-      <c r="A203" s="386" t="s">
-        <v>403</v>
+      <c r="A203" s="369" t="s">
+        <v>405</v>
       </c>
       <c r="B203" s="387" t="s">
         <v>125</v>
@@ -44712,8 +44719,8 @@
       </c>
     </row>
     <row r="204" spans="1:20" ht="17">
-      <c r="A204" s="386" t="s">
-        <v>405</v>
+      <c r="A204" s="369" t="s">
+        <v>408</v>
       </c>
       <c r="B204" s="387" t="s">
         <v>125</v>
@@ -44757,8 +44764,8 @@
       </c>
     </row>
     <row r="205" spans="1:20" ht="17">
-      <c r="A205" s="386" t="s">
-        <v>408</v>
+      <c r="A205" s="369" t="s">
+        <v>410</v>
       </c>
       <c r="B205" s="387" t="s">
         <v>125</v>
@@ -44802,8 +44809,8 @@
       </c>
     </row>
     <row r="206" spans="1:20" ht="17">
-      <c r="A206" s="386" t="s">
-        <v>410</v>
+      <c r="A206" s="369" t="s">
+        <v>412</v>
       </c>
       <c r="B206" s="387" t="s">
         <v>125</v>
@@ -44847,8 +44854,8 @@
       </c>
     </row>
     <row r="207" spans="1:20" ht="17">
-      <c r="A207" s="386" t="s">
-        <v>412</v>
+      <c r="A207" s="369" t="s">
+        <v>414</v>
       </c>
       <c r="B207" s="387" t="s">
         <v>125</v>
@@ -44892,8 +44899,8 @@
       </c>
     </row>
     <row r="208" spans="1:20" ht="17">
-      <c r="A208" s="386" t="s">
-        <v>414</v>
+      <c r="A208" s="369" t="s">
+        <v>416</v>
       </c>
       <c r="B208" s="387" t="s">
         <v>125</v>
@@ -44937,8 +44944,8 @@
       </c>
     </row>
     <row r="209" spans="1:19" ht="17">
-      <c r="A209" s="386" t="s">
-        <v>416</v>
+      <c r="A209" s="369" t="s">
+        <v>418</v>
       </c>
       <c r="B209" s="387" t="s">
         <v>125</v>
@@ -44982,8 +44989,8 @@
       </c>
     </row>
     <row r="210" spans="1:19" ht="17">
-      <c r="A210" s="386" t="s">
-        <v>418</v>
+      <c r="A210" s="369" t="s">
+        <v>420</v>
       </c>
       <c r="B210" s="387" t="s">
         <v>125</v>
@@ -45027,16 +45034,16 @@
       </c>
     </row>
     <row r="211" spans="1:19" ht="17">
-      <c r="A211" s="386" t="s">
-        <v>420</v>
+      <c r="A211" s="369" t="s">
+        <v>422</v>
       </c>
       <c r="B211" s="387" t="s">
         <v>125</v>
       </c>
-      <c r="C211" s="406" t="s">
+      <c r="C211" s="405" t="s">
         <v>64</v>
       </c>
-      <c r="D211" s="407" t="s">
+      <c r="D211" s="406" t="s">
         <v>367</v>
       </c>
       <c r="E211" s="381"/>
@@ -45062,8 +45069,8 @@
       <c r="N211" s="321"/>
     </row>
     <row r="212" spans="1:19" ht="17">
-      <c r="A212" s="386" t="s">
-        <v>422</v>
+      <c r="A212" s="369" t="s">
+        <v>424</v>
       </c>
       <c r="B212" s="387" t="s">
         <v>125</v>
@@ -45107,8 +45114,8 @@
       </c>
     </row>
     <row r="213" spans="1:19" ht="17">
-      <c r="A213" s="386" t="s">
-        <v>424</v>
+      <c r="A213" s="369" t="s">
+        <v>426</v>
       </c>
       <c r="B213" s="387" t="s">
         <v>125</v>
@@ -45152,8 +45159,8 @@
       </c>
     </row>
     <row r="214" spans="1:19" ht="17">
-      <c r="A214" s="386" t="s">
-        <v>426</v>
+      <c r="A214" s="369" t="s">
+        <v>428</v>
       </c>
       <c r="B214" s="387" t="s">
         <v>125</v>
@@ -45161,7 +45168,7 @@
       <c r="C214" s="392" t="s">
         <v>64</v>
       </c>
-      <c r="D214" s="408" t="s">
+      <c r="D214" s="407" t="s">
         <v>372</v>
       </c>
       <c r="E214" s="381" t="s">
@@ -45197,8 +45204,8 @@
       </c>
     </row>
     <row r="215" spans="1:19" ht="17">
-      <c r="A215" s="386" t="s">
-        <v>428</v>
+      <c r="A215" s="369" t="s">
+        <v>430</v>
       </c>
       <c r="B215" s="387" t="s">
         <v>125</v>
@@ -45206,7 +45213,7 @@
       <c r="C215" s="392" t="s">
         <v>64</v>
       </c>
-      <c r="D215" s="408" t="s">
+      <c r="D215" s="407" t="s">
         <v>374</v>
       </c>
       <c r="E215" s="381" t="s">
@@ -45242,8 +45249,8 @@
       </c>
     </row>
     <row r="216" spans="1:19" ht="17">
-      <c r="A216" s="386" t="s">
-        <v>430</v>
+      <c r="A216" s="369" t="s">
+        <v>432</v>
       </c>
       <c r="B216" s="387" t="s">
         <v>125</v>
@@ -45251,7 +45258,7 @@
       <c r="C216" s="392" t="s">
         <v>64</v>
       </c>
-      <c r="D216" s="408" t="s">
+      <c r="D216" s="407" t="s">
         <v>376</v>
       </c>
       <c r="E216" s="381" t="s">
@@ -45287,8 +45294,8 @@
       </c>
     </row>
     <row r="217" spans="1:19" ht="17">
-      <c r="A217" s="386" t="s">
-        <v>432</v>
+      <c r="A217" s="369" t="s">
+        <v>434</v>
       </c>
       <c r="B217" s="387" t="s">
         <v>125</v>
@@ -45296,7 +45303,7 @@
       <c r="C217" s="392" t="s">
         <v>64</v>
       </c>
-      <c r="D217" s="408" t="s">
+      <c r="D217" s="407" t="s">
         <v>378</v>
       </c>
       <c r="E217" s="381" t="s">
@@ -45341,8 +45348,8 @@
       </c>
     </row>
     <row r="218" spans="1:19" ht="17">
-      <c r="A218" s="386" t="s">
-        <v>434</v>
+      <c r="A218" s="369" t="s">
+        <v>437</v>
       </c>
       <c r="B218" s="387" t="s">
         <v>125</v>
@@ -45350,7 +45357,7 @@
       <c r="C218" s="392" t="s">
         <v>64</v>
       </c>
-      <c r="D218" s="408" t="s">
+      <c r="D218" s="407" t="s">
         <v>381</v>
       </c>
       <c r="E218" s="381" t="s">
@@ -45387,8 +45394,8 @@
       <c r="Q218" s="300"/>
     </row>
     <row r="219" spans="1:19" ht="17">
-      <c r="A219" s="386" t="s">
-        <v>437</v>
+      <c r="A219" s="369" t="s">
+        <v>440</v>
       </c>
       <c r="B219" s="387" t="s">
         <v>125</v>
@@ -45396,7 +45403,7 @@
       <c r="C219" s="392" t="s">
         <v>64</v>
       </c>
-      <c r="D219" s="408" t="s">
+      <c r="D219" s="407" t="s">
         <v>384</v>
       </c>
       <c r="E219" s="381" t="s">
@@ -45433,8 +45440,8 @@
       <c r="Q219" s="325"/>
     </row>
     <row r="220" spans="1:19" ht="17">
-      <c r="A220" s="386" t="s">
-        <v>440</v>
+      <c r="A220" s="369" t="s">
+        <v>442</v>
       </c>
       <c r="B220" s="387" t="s">
         <v>125</v>
@@ -45442,7 +45449,7 @@
       <c r="C220" s="392" t="s">
         <v>64</v>
       </c>
-      <c r="D220" s="408" t="s">
+      <c r="D220" s="407" t="s">
         <v>387</v>
       </c>
       <c r="E220" s="381" t="s">
@@ -45479,8 +45486,8 @@
       <c r="Q220" s="300"/>
     </row>
     <row r="221" spans="1:19" ht="17">
-      <c r="A221" s="386" t="s">
-        <v>442</v>
+      <c r="A221" s="369" t="s">
+        <v>444</v>
       </c>
       <c r="B221" s="387" t="s">
         <v>125</v>
@@ -45488,7 +45495,7 @@
       <c r="C221" s="392" t="s">
         <v>64</v>
       </c>
-      <c r="D221" s="408" t="s">
+      <c r="D221" s="407" t="s">
         <v>390</v>
       </c>
       <c r="E221" s="381" t="s">
@@ -45525,8 +45532,8 @@
       <c r="Q221" s="325"/>
     </row>
     <row r="222" spans="1:19" ht="17">
-      <c r="A222" s="386" t="s">
-        <v>444</v>
+      <c r="A222" s="369" t="s">
+        <v>446</v>
       </c>
       <c r="B222" s="387" t="s">
         <v>125</v>
@@ -45534,7 +45541,7 @@
       <c r="C222" s="392" t="s">
         <v>64</v>
       </c>
-      <c r="D222" s="408" t="s">
+      <c r="D222" s="407" t="s">
         <v>393</v>
       </c>
       <c r="E222" s="381" t="s">
@@ -45571,8 +45578,8 @@
       <c r="Q222" s="300"/>
     </row>
     <row r="223" spans="1:19" ht="17">
-      <c r="A223" s="386" t="s">
-        <v>446</v>
+      <c r="A223" s="369" t="s">
+        <v>448</v>
       </c>
       <c r="B223" s="387" t="s">
         <v>125</v>
@@ -45580,7 +45587,7 @@
       <c r="C223" s="392" t="s">
         <v>64</v>
       </c>
-      <c r="D223" s="408" t="s">
+      <c r="D223" s="407" t="s">
         <v>396</v>
       </c>
       <c r="E223" s="381" t="s">
@@ -45617,8 +45624,8 @@
       <c r="Q223" s="325"/>
     </row>
     <row r="224" spans="1:19" ht="17">
-      <c r="A224" s="386" t="s">
-        <v>448</v>
+      <c r="A224" s="369" t="s">
+        <v>449</v>
       </c>
       <c r="B224" s="387" t="s">
         <v>125</v>
@@ -45626,7 +45633,7 @@
       <c r="C224" s="392" t="s">
         <v>64</v>
       </c>
-      <c r="D224" s="408" t="s">
+      <c r="D224" s="407" t="s">
         <v>399</v>
       </c>
       <c r="E224" s="381">
@@ -45663,8 +45670,8 @@
       <c r="Q224" s="300"/>
     </row>
     <row r="225" spans="1:16" ht="17">
-      <c r="A225" s="390" t="s">
-        <v>449</v>
+      <c r="A225" s="369" t="s">
+        <v>450</v>
       </c>
       <c r="B225" s="387" t="s">
         <v>125</v>
@@ -45708,8 +45715,8 @@
       </c>
     </row>
     <row r="226" spans="1:16" ht="17">
-      <c r="A226" s="390" t="s">
-        <v>450</v>
+      <c r="A226" s="369" t="s">
+        <v>451</v>
       </c>
       <c r="B226" s="387" t="s">
         <v>125</v>
@@ -45753,16 +45760,16 @@
       </c>
     </row>
     <row r="227" spans="1:16" ht="17">
-      <c r="A227" s="386" t="s">
-        <v>451</v>
-      </c>
-      <c r="B227" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C227" s="410" t="s">
+      <c r="A227" s="369" t="s">
+        <v>452</v>
+      </c>
+      <c r="B227" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C227" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D227" s="411" t="s">
+      <c r="D227" s="410" t="s">
         <v>407</v>
       </c>
       <c r="E227" s="381">
@@ -45793,16 +45800,16 @@
       </c>
     </row>
     <row r="228" spans="1:16" ht="17">
-      <c r="A228" s="386" t="s">
-        <v>452</v>
-      </c>
-      <c r="B228" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C228" s="410" t="s">
+      <c r="A228" s="369" t="s">
+        <v>453</v>
+      </c>
+      <c r="B228" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C228" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D228" s="411" t="s">
+      <c r="D228" s="410" t="s">
         <v>409</v>
       </c>
       <c r="E228" s="381" t="s">
@@ -45833,16 +45840,16 @@
       </c>
     </row>
     <row r="229" spans="1:16" ht="17">
-      <c r="A229" s="386" t="s">
-        <v>453</v>
-      </c>
-      <c r="B229" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C229" s="410" t="s">
+      <c r="A229" s="369" t="s">
+        <v>454</v>
+      </c>
+      <c r="B229" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C229" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D229" s="411" t="s">
+      <c r="D229" s="410" t="s">
         <v>411</v>
       </c>
       <c r="E229" s="381" t="s">
@@ -45873,16 +45880,16 @@
       </c>
     </row>
     <row r="230" spans="1:16" ht="17">
-      <c r="A230" s="386" t="s">
-        <v>454</v>
-      </c>
-      <c r="B230" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C230" s="410" t="s">
+      <c r="A230" s="369" t="s">
+        <v>455</v>
+      </c>
+      <c r="B230" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C230" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D230" s="411" t="s">
+      <c r="D230" s="410" t="s">
         <v>413</v>
       </c>
       <c r="E230" s="381">
@@ -45913,16 +45920,16 @@
       </c>
     </row>
     <row r="231" spans="1:16" ht="17">
-      <c r="A231" s="386" t="s">
-        <v>455</v>
-      </c>
-      <c r="B231" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C231" s="410" t="s">
+      <c r="A231" s="369" t="s">
+        <v>456</v>
+      </c>
+      <c r="B231" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C231" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D231" s="411" t="s">
+      <c r="D231" s="410" t="s">
         <v>415</v>
       </c>
       <c r="E231" s="381" t="s">
@@ -45953,16 +45960,16 @@
       </c>
     </row>
     <row r="232" spans="1:16" ht="17">
-      <c r="A232" s="386" t="s">
-        <v>456</v>
-      </c>
-      <c r="B232" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C232" s="410" t="s">
+      <c r="A232" s="369" t="s">
+        <v>457</v>
+      </c>
+      <c r="B232" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C232" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D232" s="411" t="s">
+      <c r="D232" s="410" t="s">
         <v>417</v>
       </c>
       <c r="E232" s="381">
@@ -45993,16 +46000,16 @@
       </c>
     </row>
     <row r="233" spans="1:16" ht="17">
-      <c r="A233" s="386" t="s">
-        <v>457</v>
-      </c>
-      <c r="B233" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C233" s="410" t="s">
+      <c r="A233" s="369" t="s">
+        <v>458</v>
+      </c>
+      <c r="B233" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C233" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D233" s="411" t="s">
+      <c r="D233" s="410" t="s">
         <v>419</v>
       </c>
       <c r="E233" s="381">
@@ -46033,16 +46040,16 @@
       </c>
     </row>
     <row r="234" spans="1:16" ht="17">
-      <c r="A234" s="386" t="s">
-        <v>458</v>
-      </c>
-      <c r="B234" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C234" s="410" t="s">
+      <c r="A234" s="369" t="s">
+        <v>459</v>
+      </c>
+      <c r="B234" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C234" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D234" s="411" t="s">
+      <c r="D234" s="410" t="s">
         <v>421</v>
       </c>
       <c r="E234" s="381">
@@ -46073,16 +46080,16 @@
       </c>
     </row>
     <row r="235" spans="1:16" ht="17">
-      <c r="A235" s="386" t="s">
-        <v>459</v>
-      </c>
-      <c r="B235" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C235" s="410" t="s">
+      <c r="A235" s="369" t="s">
+        <v>460</v>
+      </c>
+      <c r="B235" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C235" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D235" s="411" t="s">
+      <c r="D235" s="410" t="s">
         <v>423</v>
       </c>
       <c r="E235" s="381">
@@ -46113,16 +46120,16 @@
       </c>
     </row>
     <row r="236" spans="1:16" ht="17">
-      <c r="A236" s="386" t="s">
-        <v>460</v>
-      </c>
-      <c r="B236" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C236" s="410" t="s">
+      <c r="A236" s="369" t="s">
+        <v>461</v>
+      </c>
+      <c r="B236" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C236" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D236" s="411" t="s">
+      <c r="D236" s="410" t="s">
         <v>425</v>
       </c>
       <c r="E236" s="381">
@@ -46153,16 +46160,16 @@
       </c>
     </row>
     <row r="237" spans="1:16" ht="17">
-      <c r="A237" s="386" t="s">
-        <v>461</v>
-      </c>
-      <c r="B237" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C237" s="410" t="s">
+      <c r="A237" s="369" t="s">
+        <v>462</v>
+      </c>
+      <c r="B237" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C237" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D237" s="411" t="s">
+      <c r="D237" s="410" t="s">
         <v>427</v>
       </c>
       <c r="E237" s="381">
@@ -46193,16 +46200,16 @@
       </c>
     </row>
     <row r="238" spans="1:16" ht="17">
-      <c r="A238" s="386" t="s">
-        <v>462</v>
-      </c>
-      <c r="B238" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C238" s="410" t="s">
+      <c r="A238" s="369" t="s">
+        <v>463</v>
+      </c>
+      <c r="B238" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C238" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D238" s="411" t="s">
+      <c r="D238" s="410" t="s">
         <v>429</v>
       </c>
       <c r="E238" s="381">
@@ -46233,16 +46240,16 @@
       </c>
     </row>
     <row r="239" spans="1:16" ht="17">
-      <c r="A239" s="386" t="s">
-        <v>463</v>
-      </c>
-      <c r="B239" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C239" s="410" t="s">
+      <c r="A239" s="369" t="s">
+        <v>466</v>
+      </c>
+      <c r="B239" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C239" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D239" s="411" t="s">
+      <c r="D239" s="410" t="s">
         <v>431</v>
       </c>
       <c r="E239" s="381">
@@ -46273,16 +46280,16 @@
       </c>
     </row>
     <row r="240" spans="1:16" ht="17">
-      <c r="A240" s="386" t="s">
-        <v>466</v>
-      </c>
-      <c r="B240" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C240" s="410" t="s">
+      <c r="A240" s="369" t="s">
+        <v>469</v>
+      </c>
+      <c r="B240" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C240" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D240" s="411" t="s">
+      <c r="D240" s="410" t="s">
         <v>433</v>
       </c>
       <c r="E240" s="381">
@@ -46313,16 +46320,16 @@
       </c>
     </row>
     <row r="241" spans="1:15" ht="17">
-      <c r="A241" s="386" t="s">
-        <v>469</v>
-      </c>
-      <c r="B241" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C241" s="410" t="s">
+      <c r="A241" s="369" t="s">
+        <v>471</v>
+      </c>
+      <c r="B241" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C241" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D241" s="411" t="s">
+      <c r="D241" s="410" t="s">
         <v>435</v>
       </c>
       <c r="E241" s="381" t="s">
@@ -46353,16 +46360,16 @@
       </c>
     </row>
     <row r="242" spans="1:15" ht="17">
-      <c r="A242" s="386" t="s">
-        <v>471</v>
-      </c>
-      <c r="B242" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C242" s="410" t="s">
+      <c r="A242" s="369" t="s">
+        <v>472</v>
+      </c>
+      <c r="B242" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C242" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D242" s="411" t="s">
+      <c r="D242" s="410" t="s">
         <v>438</v>
       </c>
       <c r="E242" s="381" t="s">
@@ -46393,16 +46400,16 @@
       </c>
     </row>
     <row r="243" spans="1:15" ht="17">
-      <c r="A243" s="386" t="s">
-        <v>472</v>
-      </c>
-      <c r="B243" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C243" s="410" t="s">
+      <c r="A243" s="369" t="s">
+        <v>474</v>
+      </c>
+      <c r="B243" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C243" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D243" s="411" t="s">
+      <c r="D243" s="410" t="s">
         <v>441</v>
       </c>
       <c r="E243" s="381" t="s">
@@ -46433,16 +46440,16 @@
       </c>
     </row>
     <row r="244" spans="1:15" ht="17">
-      <c r="A244" s="386" t="s">
-        <v>474</v>
-      </c>
-      <c r="B244" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C244" s="410" t="s">
+      <c r="A244" s="369" t="s">
+        <v>475</v>
+      </c>
+      <c r="B244" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C244" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D244" s="411" t="s">
+      <c r="D244" s="410" t="s">
         <v>443</v>
       </c>
       <c r="E244" s="381" t="s">
@@ -46473,16 +46480,16 @@
       </c>
     </row>
     <row r="245" spans="1:15" ht="17">
-      <c r="A245" s="386" t="s">
-        <v>475</v>
-      </c>
-      <c r="B245" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C245" s="410" t="s">
+      <c r="A245" s="369" t="s">
+        <v>477</v>
+      </c>
+      <c r="B245" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C245" s="409" t="s">
         <v>406</v>
       </c>
-      <c r="D245" s="411" t="s">
+      <c r="D245" s="410" t="s">
         <v>445</v>
       </c>
       <c r="E245" s="381" t="s">
@@ -46513,16 +46520,16 @@
       </c>
     </row>
     <row r="246" spans="1:15" ht="17">
-      <c r="A246" s="390" t="s">
-        <v>477</v>
-      </c>
-      <c r="B246" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C246" s="412" t="s">
+      <c r="A246" s="369" t="s">
+        <v>479</v>
+      </c>
+      <c r="B246" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C246" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D246" s="411" t="s">
+      <c r="D246" s="410" t="s">
         <v>407</v>
       </c>
       <c r="E246" s="381">
@@ -46553,16 +46560,16 @@
       </c>
     </row>
     <row r="247" spans="1:15" ht="17">
-      <c r="A247" s="390" t="s">
-        <v>479</v>
-      </c>
-      <c r="B247" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C247" s="412" t="s">
+      <c r="A247" s="369" t="s">
+        <v>481</v>
+      </c>
+      <c r="B247" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C247" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D247" s="411" t="s">
+      <c r="D247" s="410" t="s">
         <v>415</v>
       </c>
       <c r="E247" s="381" t="s">
@@ -46593,16 +46600,16 @@
       </c>
     </row>
     <row r="248" spans="1:15" ht="17">
-      <c r="A248" s="390" t="s">
-        <v>481</v>
-      </c>
-      <c r="B248" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C248" s="412" t="s">
+      <c r="A248" s="369" t="s">
+        <v>483</v>
+      </c>
+      <c r="B248" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C248" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D248" s="411" t="s">
+      <c r="D248" s="410" t="s">
         <v>417</v>
       </c>
       <c r="E248" s="381">
@@ -46633,16 +46640,16 @@
       </c>
     </row>
     <row r="249" spans="1:15" ht="17">
-      <c r="A249" s="390" t="s">
-        <v>483</v>
-      </c>
-      <c r="B249" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C249" s="412" t="s">
+      <c r="A249" s="369" t="s">
+        <v>485</v>
+      </c>
+      <c r="B249" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C249" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D249" s="411" t="s">
+      <c r="D249" s="410" t="s">
         <v>419</v>
       </c>
       <c r="E249" s="381">
@@ -46673,16 +46680,16 @@
       </c>
     </row>
     <row r="250" spans="1:15" ht="17">
-      <c r="A250" s="390" t="s">
-        <v>485</v>
-      </c>
-      <c r="B250" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C250" s="412" t="s">
+      <c r="A250" s="369" t="s">
+        <v>487</v>
+      </c>
+      <c r="B250" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C250" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D250" s="411" t="s">
+      <c r="D250" s="410" t="s">
         <v>421</v>
       </c>
       <c r="E250" s="381">
@@ -46713,16 +46720,16 @@
       </c>
     </row>
     <row r="251" spans="1:15" ht="17">
-      <c r="A251" s="390" t="s">
-        <v>487</v>
-      </c>
-      <c r="B251" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C251" s="412" t="s">
+      <c r="A251" s="369" t="s">
+        <v>489</v>
+      </c>
+      <c r="B251" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C251" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D251" s="411" t="s">
+      <c r="D251" s="410" t="s">
         <v>423</v>
       </c>
       <c r="E251" s="381">
@@ -46753,16 +46760,16 @@
       </c>
     </row>
     <row r="252" spans="1:15" ht="17">
-      <c r="A252" s="390" t="s">
-        <v>489</v>
-      </c>
-      <c r="B252" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C252" s="412" t="s">
+      <c r="A252" s="369" t="s">
+        <v>491</v>
+      </c>
+      <c r="B252" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C252" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D252" s="411" t="s">
+      <c r="D252" s="410" t="s">
         <v>425</v>
       </c>
       <c r="E252" s="381">
@@ -46793,16 +46800,16 @@
       </c>
     </row>
     <row r="253" spans="1:15" ht="17">
-      <c r="A253" s="390" t="s">
-        <v>491</v>
-      </c>
-      <c r="B253" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C253" s="412" t="s">
+      <c r="A253" s="369" t="s">
+        <v>493</v>
+      </c>
+      <c r="B253" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C253" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D253" s="411" t="s">
+      <c r="D253" s="410" t="s">
         <v>427</v>
       </c>
       <c r="E253" s="381">
@@ -46833,16 +46840,16 @@
       </c>
     </row>
     <row r="254" spans="1:15" ht="17">
-      <c r="A254" s="390" t="s">
-        <v>493</v>
-      </c>
-      <c r="B254" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C254" s="412" t="s">
+      <c r="A254" s="369" t="s">
+        <v>495</v>
+      </c>
+      <c r="B254" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C254" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D254" s="411" t="s">
+      <c r="D254" s="410" t="s">
         <v>429</v>
       </c>
       <c r="E254" s="381">
@@ -46873,16 +46880,16 @@
       </c>
     </row>
     <row r="255" spans="1:15" ht="17">
-      <c r="A255" s="390" t="s">
-        <v>495</v>
-      </c>
-      <c r="B255" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C255" s="412" t="s">
+      <c r="A255" s="369" t="s">
+        <v>497</v>
+      </c>
+      <c r="B255" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C255" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D255" s="411" t="s">
+      <c r="D255" s="410" t="s">
         <v>431</v>
       </c>
       <c r="E255" s="381">
@@ -46913,16 +46920,16 @@
       </c>
     </row>
     <row r="256" spans="1:15" ht="17">
-      <c r="A256" s="390" t="s">
-        <v>497</v>
-      </c>
-      <c r="B256" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C256" s="412" t="s">
+      <c r="A256" s="369" t="s">
+        <v>499</v>
+      </c>
+      <c r="B256" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C256" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D256" s="411" t="s">
+      <c r="D256" s="410" t="s">
         <v>433</v>
       </c>
       <c r="E256" s="381">
@@ -46953,16 +46960,16 @@
       </c>
     </row>
     <row r="257" spans="1:15" ht="17">
-      <c r="A257" s="390" t="s">
-        <v>499</v>
-      </c>
-      <c r="B257" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C257" s="412" t="s">
+      <c r="A257" s="369" t="s">
+        <v>502</v>
+      </c>
+      <c r="B257" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C257" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D257" s="411" t="s">
+      <c r="D257" s="410" t="s">
         <v>435</v>
       </c>
       <c r="E257" s="381" t="s">
@@ -46993,16 +47000,16 @@
       </c>
     </row>
     <row r="258" spans="1:15" ht="17">
-      <c r="A258" s="390" t="s">
-        <v>502</v>
-      </c>
-      <c r="B258" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C258" s="412" t="s">
+      <c r="A258" s="369" t="s">
+        <v>504</v>
+      </c>
+      <c r="B258" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C258" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D258" s="411" t="s">
+      <c r="D258" s="410" t="s">
         <v>1033</v>
       </c>
       <c r="E258" s="381" t="s">
@@ -47033,16 +47040,16 @@
       </c>
     </row>
     <row r="259" spans="1:15" ht="17">
-      <c r="A259" s="390" t="s">
-        <v>504</v>
-      </c>
-      <c r="B259" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C259" s="412" t="s">
+      <c r="A259" s="369" t="s">
+        <v>506</v>
+      </c>
+      <c r="B259" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C259" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D259" s="411" t="s">
+      <c r="D259" s="410" t="s">
         <v>441</v>
       </c>
       <c r="E259" s="381" t="s">
@@ -47073,16 +47080,16 @@
       </c>
     </row>
     <row r="260" spans="1:15" ht="17">
-      <c r="A260" s="390" t="s">
-        <v>506</v>
-      </c>
-      <c r="B260" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C260" s="412" t="s">
+      <c r="A260" s="369" t="s">
+        <v>508</v>
+      </c>
+      <c r="B260" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C260" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D260" s="411" t="s">
+      <c r="D260" s="410" t="s">
         <v>443</v>
       </c>
       <c r="E260" s="381" t="s">
@@ -47113,16 +47120,16 @@
       </c>
     </row>
     <row r="261" spans="1:15" ht="17">
-      <c r="A261" s="390" t="s">
-        <v>508</v>
-      </c>
-      <c r="B261" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C261" s="412" t="s">
+      <c r="A261" s="369" t="s">
+        <v>510</v>
+      </c>
+      <c r="B261" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C261" s="411" t="s">
         <v>447</v>
       </c>
-      <c r="D261" s="411" t="s">
+      <c r="D261" s="410" t="s">
         <v>445</v>
       </c>
       <c r="E261" s="381" t="s">
@@ -47153,16 +47160,16 @@
       </c>
     </row>
     <row r="262" spans="1:15" ht="17">
-      <c r="A262" s="386" t="s">
-        <v>510</v>
-      </c>
-      <c r="B262" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C262" s="413" t="s">
+      <c r="A262" s="369" t="s">
+        <v>512</v>
+      </c>
+      <c r="B262" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C262" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D262" s="414" t="s">
+      <c r="D262" s="413" t="s">
         <v>465</v>
       </c>
       <c r="E262" s="381">
@@ -47193,16 +47200,16 @@
       </c>
     </row>
     <row r="263" spans="1:15" ht="17">
-      <c r="A263" s="386" t="s">
-        <v>512</v>
-      </c>
-      <c r="B263" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C263" s="413" t="s">
+      <c r="A263" s="369" t="s">
+        <v>514</v>
+      </c>
+      <c r="B263" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C263" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D263" s="414" t="s">
+      <c r="D263" s="413" t="s">
         <v>467</v>
       </c>
       <c r="E263" s="381" t="s">
@@ -47233,16 +47240,16 @@
       </c>
     </row>
     <row r="264" spans="1:15" ht="17">
-      <c r="A264" s="386" t="s">
-        <v>514</v>
-      </c>
-      <c r="B264" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C264" s="413" t="s">
+      <c r="A264" s="369" t="s">
+        <v>516</v>
+      </c>
+      <c r="B264" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C264" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D264" s="414" t="s">
+      <c r="D264" s="413" t="s">
         <v>470</v>
       </c>
       <c r="E264" s="381">
@@ -47273,16 +47280,16 @@
       </c>
     </row>
     <row r="265" spans="1:15" ht="17">
-      <c r="A265" s="386" t="s">
-        <v>516</v>
-      </c>
-      <c r="B265" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C265" s="413" t="s">
+      <c r="A265" s="369" t="s">
+        <v>520</v>
+      </c>
+      <c r="B265" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C265" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D265" s="414" t="s">
+      <c r="D265" s="413" t="s">
         <v>465</v>
       </c>
       <c r="E265" s="381">
@@ -47313,16 +47320,16 @@
       </c>
     </row>
     <row r="266" spans="1:15" ht="17">
-      <c r="A266" s="386" t="s">
-        <v>520</v>
-      </c>
-      <c r="B266" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C266" s="413" t="s">
+      <c r="A266" s="369" t="s">
+        <v>523</v>
+      </c>
+      <c r="B266" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C266" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D266" s="414" t="s">
+      <c r="D266" s="413" t="s">
         <v>473</v>
       </c>
       <c r="E266" s="381">
@@ -47353,16 +47360,16 @@
       </c>
     </row>
     <row r="267" spans="1:15" ht="17">
-      <c r="A267" s="386" t="s">
-        <v>523</v>
-      </c>
-      <c r="B267" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C267" s="413" t="s">
+      <c r="A267" s="369" t="s">
+        <v>525</v>
+      </c>
+      <c r="B267" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C267" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D267" s="414" t="s">
+      <c r="D267" s="413" t="s">
         <v>423</v>
       </c>
       <c r="E267" s="381">
@@ -47393,16 +47400,16 @@
       </c>
     </row>
     <row r="268" spans="1:15" ht="17">
-      <c r="A268" s="386" t="s">
-        <v>525</v>
-      </c>
-      <c r="B268" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C268" s="413" t="s">
+      <c r="A268" s="369" t="s">
+        <v>527</v>
+      </c>
+      <c r="B268" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C268" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D268" s="414" t="s">
+      <c r="D268" s="413" t="s">
         <v>476</v>
       </c>
       <c r="E268" s="381" t="s">
@@ -47433,16 +47440,16 @@
       </c>
     </row>
     <row r="269" spans="1:15" ht="17">
-      <c r="A269" s="386" t="s">
-        <v>527</v>
-      </c>
-      <c r="B269" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C269" s="413" t="s">
+      <c r="A269" s="369" t="s">
+        <v>529</v>
+      </c>
+      <c r="B269" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C269" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D269" s="414" t="s">
+      <c r="D269" s="413" t="s">
         <v>478</v>
       </c>
       <c r="E269" s="381" t="s">
@@ -47473,16 +47480,16 @@
       </c>
     </row>
     <row r="270" spans="1:15" ht="17">
-      <c r="A270" s="386" t="s">
-        <v>529</v>
-      </c>
-      <c r="B270" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C270" s="413" t="s">
+      <c r="A270" s="369" t="s">
+        <v>532</v>
+      </c>
+      <c r="B270" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C270" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D270" s="414" t="s">
+      <c r="D270" s="413" t="s">
         <v>480</v>
       </c>
       <c r="E270" s="381" t="s">
@@ -47513,16 +47520,16 @@
       </c>
     </row>
     <row r="271" spans="1:15" ht="17">
-      <c r="A271" s="386" t="s">
-        <v>532</v>
-      </c>
-      <c r="B271" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C271" s="413" t="s">
+      <c r="A271" s="369" t="s">
+        <v>534</v>
+      </c>
+      <c r="B271" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C271" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D271" s="414" t="s">
+      <c r="D271" s="413" t="s">
         <v>482</v>
       </c>
       <c r="E271" s="381" t="s">
@@ -47553,16 +47560,16 @@
       </c>
     </row>
     <row r="272" spans="1:15" ht="17">
-      <c r="A272" s="386" t="s">
-        <v>534</v>
-      </c>
-      <c r="B272" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C272" s="413" t="s">
+      <c r="A272" s="369" t="s">
+        <v>536</v>
+      </c>
+      <c r="B272" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C272" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D272" s="414" t="s">
+      <c r="D272" s="413" t="s">
         <v>484</v>
       </c>
       <c r="E272" s="381" t="s">
@@ -47593,16 +47600,16 @@
       </c>
     </row>
     <row r="273" spans="1:18" ht="17">
-      <c r="A273" s="386" t="s">
-        <v>536</v>
-      </c>
-      <c r="B273" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C273" s="413" t="s">
+      <c r="A273" s="369" t="s">
+        <v>538</v>
+      </c>
+      <c r="B273" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C273" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D273" s="414" t="s">
+      <c r="D273" s="413" t="s">
         <v>486</v>
       </c>
       <c r="E273" s="381" t="s">
@@ -47633,16 +47640,16 @@
       </c>
     </row>
     <row r="274" spans="1:18" ht="17">
-      <c r="A274" s="386" t="s">
-        <v>538</v>
-      </c>
-      <c r="B274" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C274" s="413" t="s">
+      <c r="A274" s="369" t="s">
+        <v>540</v>
+      </c>
+      <c r="B274" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C274" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D274" s="414" t="s">
+      <c r="D274" s="413" t="s">
         <v>488</v>
       </c>
       <c r="E274" s="381" t="s">
@@ -47673,16 +47680,16 @@
       </c>
     </row>
     <row r="275" spans="1:18" ht="17">
-      <c r="A275" s="386" t="s">
-        <v>540</v>
-      </c>
-      <c r="B275" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C275" s="413" t="s">
+      <c r="A275" s="369" t="s">
+        <v>542</v>
+      </c>
+      <c r="B275" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C275" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D275" s="414" t="s">
+      <c r="D275" s="413" t="s">
         <v>490</v>
       </c>
       <c r="E275" s="381" t="s">
@@ -47713,16 +47720,16 @@
       </c>
     </row>
     <row r="276" spans="1:18" ht="17">
-      <c r="A276" s="386" t="s">
-        <v>542</v>
-      </c>
-      <c r="B276" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C276" s="413" t="s">
+      <c r="A276" s="369" t="s">
+        <v>544</v>
+      </c>
+      <c r="B276" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C276" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D276" s="414" t="s">
+      <c r="D276" s="413" t="s">
         <v>492</v>
       </c>
       <c r="E276" s="381" t="s">
@@ -47753,16 +47760,16 @@
       </c>
     </row>
     <row r="277" spans="1:18" ht="17">
-      <c r="A277" s="386" t="s">
-        <v>544</v>
-      </c>
-      <c r="B277" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C277" s="413" t="s">
+      <c r="A277" s="369" t="s">
+        <v>547</v>
+      </c>
+      <c r="B277" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C277" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D277" s="414" t="s">
+      <c r="D277" s="413" t="s">
         <v>494</v>
       </c>
       <c r="E277" s="381" t="s">
@@ -47793,16 +47800,16 @@
       </c>
     </row>
     <row r="278" spans="1:18" ht="17">
-      <c r="A278" s="386" t="s">
-        <v>547</v>
-      </c>
-      <c r="B278" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C278" s="413" t="s">
+      <c r="A278" s="369" t="s">
+        <v>549</v>
+      </c>
+      <c r="B278" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C278" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D278" s="414" t="s">
+      <c r="D278" s="413" t="s">
         <v>496</v>
       </c>
       <c r="E278" s="381" t="s">
@@ -47833,16 +47840,16 @@
       </c>
     </row>
     <row r="279" spans="1:18" ht="17">
-      <c r="A279" s="386" t="s">
-        <v>549</v>
-      </c>
-      <c r="B279" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C279" s="413" t="s">
+      <c r="A279" s="369" t="s">
+        <v>552</v>
+      </c>
+      <c r="B279" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C279" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="D279" s="414" t="s">
+      <c r="D279" s="413" t="s">
         <v>498</v>
       </c>
       <c r="E279" s="381" t="s">
@@ -47873,14 +47880,14 @@
       </c>
     </row>
     <row r="280" spans="1:18" ht="16">
-      <c r="A280" s="415" t="s">
-        <v>552</v>
-      </c>
-      <c r="B280" s="416"/>
-      <c r="C280" s="417" t="s">
+      <c r="A280" s="369" t="s">
+        <v>554</v>
+      </c>
+      <c r="B280" s="415"/>
+      <c r="C280" s="416" t="s">
         <v>500</v>
       </c>
-      <c r="D280" s="415" t="s">
+      <c r="D280" s="414" t="s">
         <v>1035</v>
       </c>
       <c r="E280" s="381"/>
@@ -47914,14 +47921,14 @@
       </c>
     </row>
     <row r="281" spans="1:18" ht="16">
-      <c r="A281" s="415" t="s">
-        <v>554</v>
-      </c>
-      <c r="B281" s="416"/>
-      <c r="C281" s="417" t="s">
+      <c r="A281" s="369" t="s">
+        <v>556</v>
+      </c>
+      <c r="B281" s="415"/>
+      <c r="C281" s="416" t="s">
         <v>500</v>
       </c>
-      <c r="D281" s="415" t="s">
+      <c r="D281" s="414" t="s">
         <v>1037</v>
       </c>
       <c r="E281" s="381"/>
@@ -47955,14 +47962,14 @@
       </c>
     </row>
     <row r="282" spans="1:18" ht="16">
-      <c r="A282" s="415" t="s">
-        <v>556</v>
-      </c>
-      <c r="B282" s="416"/>
-      <c r="C282" s="417" t="s">
+      <c r="A282" s="369" t="s">
+        <v>558</v>
+      </c>
+      <c r="B282" s="415"/>
+      <c r="C282" s="416" t="s">
         <v>500</v>
       </c>
-      <c r="D282" s="415" t="s">
+      <c r="D282" s="414" t="s">
         <v>505</v>
       </c>
       <c r="E282" s="381"/>
@@ -47996,12 +48003,14 @@
       </c>
     </row>
     <row r="283" spans="1:18" ht="16">
-      <c r="A283" s="415"/>
-      <c r="B283" s="416"/>
-      <c r="C283" s="417" t="s">
+      <c r="A283" s="369" t="s">
+        <v>560</v>
+      </c>
+      <c r="B283" s="415"/>
+      <c r="C283" s="416" t="s">
         <v>500</v>
       </c>
-      <c r="D283" s="415" t="s">
+      <c r="D283" s="414" t="s">
         <v>1039</v>
       </c>
       <c r="E283" s="381"/>
@@ -48027,14 +48036,14 @@
       </c>
     </row>
     <row r="284" spans="1:18" ht="16">
-      <c r="A284" s="415" t="s">
-        <v>558</v>
-      </c>
-      <c r="B284" s="416"/>
-      <c r="C284" s="417" t="s">
+      <c r="A284" s="369" t="s">
+        <v>562</v>
+      </c>
+      <c r="B284" s="415"/>
+      <c r="C284" s="416" t="s">
         <v>500</v>
       </c>
-      <c r="D284" s="415" t="s">
+      <c r="D284" s="414" t="s">
         <v>507</v>
       </c>
       <c r="E284" s="381"/>
@@ -48068,14 +48077,14 @@
       </c>
     </row>
     <row r="285" spans="1:18" ht="16">
-      <c r="A285" s="415" t="s">
-        <v>560</v>
-      </c>
-      <c r="B285" s="416"/>
-      <c r="C285" s="417" t="s">
+      <c r="A285" s="369" t="s">
+        <v>564</v>
+      </c>
+      <c r="B285" s="415"/>
+      <c r="C285" s="416" t="s">
         <v>500</v>
       </c>
-      <c r="D285" s="415" t="s">
+      <c r="D285" s="414" t="s">
         <v>509</v>
       </c>
       <c r="E285" s="381"/>
@@ -48109,14 +48118,14 @@
       </c>
     </row>
     <row r="286" spans="1:18" ht="16">
-      <c r="A286" s="415" t="s">
-        <v>562</v>
-      </c>
-      <c r="B286" s="416"/>
-      <c r="C286" s="417" t="s">
+      <c r="A286" s="369" t="s">
+        <v>566</v>
+      </c>
+      <c r="B286" s="415"/>
+      <c r="C286" s="416" t="s">
         <v>500</v>
       </c>
-      <c r="D286" s="415" t="s">
+      <c r="D286" s="414" t="s">
         <v>511</v>
       </c>
       <c r="E286" s="381"/>
@@ -48150,14 +48159,14 @@
       </c>
     </row>
     <row r="287" spans="1:18" ht="16">
-      <c r="A287" s="415" t="s">
-        <v>564</v>
-      </c>
-      <c r="B287" s="416"/>
-      <c r="C287" s="417" t="s">
+      <c r="A287" s="369" t="s">
+        <v>568</v>
+      </c>
+      <c r="B287" s="415"/>
+      <c r="C287" s="416" t="s">
         <v>500</v>
       </c>
-      <c r="D287" s="415" t="s">
+      <c r="D287" s="414" t="s">
         <v>513</v>
       </c>
       <c r="E287" s="381"/>
@@ -48191,14 +48200,14 @@
       </c>
     </row>
     <row r="288" spans="1:18" ht="16">
-      <c r="A288" s="415" t="s">
-        <v>566</v>
-      </c>
-      <c r="B288" s="416"/>
-      <c r="C288" s="417" t="s">
+      <c r="A288" s="369" t="s">
+        <v>570</v>
+      </c>
+      <c r="B288" s="415"/>
+      <c r="C288" s="416" t="s">
         <v>500</v>
       </c>
-      <c r="D288" s="415" t="s">
+      <c r="D288" s="414" t="s">
         <v>515</v>
       </c>
       <c r="E288" s="381"/>
@@ -48226,16 +48235,16 @@
       <c r="P288" s="310"/>
     </row>
     <row r="289" spans="1:16" ht="17">
-      <c r="A289" s="390" t="s">
-        <v>568</v>
-      </c>
-      <c r="B289" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C289" s="418" t="s">
+      <c r="A289" s="369" t="s">
+        <v>572</v>
+      </c>
+      <c r="B289" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C289" s="417" t="s">
         <v>1045</v>
       </c>
-      <c r="D289" s="418" t="s">
+      <c r="D289" s="417" t="s">
         <v>1046</v>
       </c>
       <c r="E289" s="381" t="s">
@@ -48266,16 +48275,16 @@
       </c>
     </row>
     <row r="290" spans="1:16" ht="17">
-      <c r="A290" s="390" t="s">
-        <v>570</v>
-      </c>
-      <c r="B290" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C290" s="418" t="s">
+      <c r="A290" s="369" t="s">
+        <v>574</v>
+      </c>
+      <c r="B290" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C290" s="417" t="s">
         <v>1045</v>
       </c>
-      <c r="D290" s="418" t="s">
+      <c r="D290" s="417" t="s">
         <v>1047</v>
       </c>
       <c r="E290" s="381" t="s">
@@ -48306,16 +48315,16 @@
       </c>
     </row>
     <row r="291" spans="1:16" ht="17">
-      <c r="A291" s="390" t="s">
-        <v>572</v>
-      </c>
-      <c r="B291" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C291" s="418" t="s">
+      <c r="A291" s="369" t="s">
+        <v>576</v>
+      </c>
+      <c r="B291" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C291" s="417" t="s">
         <v>1045</v>
       </c>
-      <c r="D291" s="418" t="s">
+      <c r="D291" s="417" t="s">
         <v>1048</v>
       </c>
       <c r="E291" s="381" t="s">
@@ -48346,16 +48355,16 @@
       </c>
     </row>
     <row r="292" spans="1:16" ht="17">
-      <c r="A292" s="390" t="s">
-        <v>574</v>
-      </c>
-      <c r="B292" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C292" s="418" t="s">
+      <c r="A292" s="369" t="s">
+        <v>578</v>
+      </c>
+      <c r="B292" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C292" s="417" t="s">
         <v>1045</v>
       </c>
-      <c r="D292" s="418" t="s">
+      <c r="D292" s="417" t="s">
         <v>1049</v>
       </c>
       <c r="E292" s="381" t="s">
@@ -48386,16 +48395,16 @@
       </c>
     </row>
     <row r="293" spans="1:16" ht="17">
-      <c r="A293" s="390" t="s">
-        <v>576</v>
-      </c>
-      <c r="B293" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C293" s="418" t="s">
+      <c r="A293" s="369" t="s">
+        <v>580</v>
+      </c>
+      <c r="B293" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C293" s="417" t="s">
         <v>1045</v>
       </c>
-      <c r="D293" s="418" t="s">
+      <c r="D293" s="417" t="s">
         <v>1050</v>
       </c>
       <c r="E293" s="381" t="s">
@@ -48426,16 +48435,16 @@
       </c>
     </row>
     <row r="294" spans="1:16" ht="17">
-      <c r="A294" s="390" t="s">
-        <v>578</v>
-      </c>
-      <c r="B294" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C294" s="418" t="s">
+      <c r="A294" s="369" t="s">
+        <v>582</v>
+      </c>
+      <c r="B294" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C294" s="417" t="s">
         <v>1045</v>
       </c>
-      <c r="D294" s="418" t="s">
+      <c r="D294" s="417" t="s">
         <v>1051</v>
       </c>
       <c r="E294" s="381" t="s">
@@ -48466,16 +48475,16 @@
       </c>
     </row>
     <row r="295" spans="1:16" ht="17">
-      <c r="A295" s="390" t="s">
-        <v>580</v>
-      </c>
-      <c r="B295" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C295" s="418" t="s">
+      <c r="A295" s="369" t="s">
+        <v>585</v>
+      </c>
+      <c r="B295" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C295" s="417" t="s">
         <v>1045</v>
       </c>
-      <c r="D295" s="418" t="s">
+      <c r="D295" s="417" t="s">
         <v>1052</v>
       </c>
       <c r="E295" s="381" t="s">
@@ -48506,16 +48515,16 @@
       </c>
     </row>
     <row r="296" spans="1:16" ht="17">
-      <c r="A296" s="390" t="s">
-        <v>582</v>
-      </c>
-      <c r="B296" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C296" s="418" t="s">
+      <c r="A296" s="369" t="s">
+        <v>587</v>
+      </c>
+      <c r="B296" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C296" s="417" t="s">
         <v>1045</v>
       </c>
-      <c r="D296" s="418" t="s">
+      <c r="D296" s="417" t="s">
         <v>1053</v>
       </c>
       <c r="E296" s="381" t="s">
@@ -48546,16 +48555,16 @@
       </c>
     </row>
     <row r="297" spans="1:16" ht="17">
-      <c r="A297" s="390" t="s">
-        <v>585</v>
-      </c>
-      <c r="B297" s="409" t="s">
-        <v>125</v>
-      </c>
-      <c r="C297" s="418" t="s">
+      <c r="A297" s="369" t="s">
+        <v>711</v>
+      </c>
+      <c r="B297" s="408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C297" s="417" t="s">
         <v>1045</v>
       </c>
-      <c r="D297" s="418" t="s">
+      <c r="D297" s="417" t="s">
         <v>1054</v>
       </c>
       <c r="E297" s="381" t="s">
@@ -48586,16 +48595,16 @@
       </c>
     </row>
     <row r="298" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A298" s="386" t="s">
-        <v>711</v>
-      </c>
-      <c r="B298" s="419" t="s">
+      <c r="A298" s="369" t="s">
+        <v>712</v>
+      </c>
+      <c r="B298" s="418" t="s">
         <v>517</v>
       </c>
-      <c r="C298" s="420" t="s">
+      <c r="C298" s="419" t="s">
         <v>518</v>
       </c>
-      <c r="D298" s="420" t="s">
+      <c r="D298" s="419" t="s">
         <v>518</v>
       </c>
       <c r="E298" s="381" t="s">
@@ -48623,8 +48632,8 @@
       <c r="N298" s="321"/>
     </row>
     <row r="299" spans="1:16" ht="17">
-      <c r="A299" s="378" t="s">
-        <v>712</v>
+      <c r="A299" s="369" t="s">
+        <v>713</v>
       </c>
       <c r="B299" s="379" t="s">
         <v>517</v>
@@ -48668,8 +48677,8 @@
       </c>
     </row>
     <row r="300" spans="1:16" ht="17">
-      <c r="A300" s="378" t="s">
-        <v>713</v>
+      <c r="A300" s="369" t="s">
+        <v>714</v>
       </c>
       <c r="B300" s="379" t="s">
         <v>517</v>
@@ -48713,8 +48722,8 @@
       </c>
     </row>
     <row r="301" spans="1:16" ht="17">
-      <c r="A301" s="378" t="s">
-        <v>714</v>
+      <c r="A301" s="369" t="s">
+        <v>715</v>
       </c>
       <c r="B301" s="379" t="s">
         <v>517</v>
@@ -48758,8 +48767,8 @@
       </c>
     </row>
     <row r="302" spans="1:16" ht="17">
-      <c r="A302" s="378" t="s">
-        <v>715</v>
+      <c r="A302" s="369" t="s">
+        <v>716</v>
       </c>
       <c r="B302" s="379" t="s">
         <v>517</v>
@@ -48803,8 +48812,8 @@
       </c>
     </row>
     <row r="303" spans="1:16" ht="17">
-      <c r="A303" s="378" t="s">
-        <v>716</v>
+      <c r="A303" s="369" t="s">
+        <v>717</v>
       </c>
       <c r="B303" s="379" t="s">
         <v>517</v>
@@ -48812,7 +48821,7 @@
       <c r="C303" s="385" t="s">
         <v>530</v>
       </c>
-      <c r="D303" s="421" t="s">
+      <c r="D303" s="420" t="s">
         <v>531</v>
       </c>
       <c r="E303" s="381">
@@ -48848,8 +48857,8 @@
       </c>
     </row>
     <row r="304" spans="1:16" ht="17">
-      <c r="A304" s="378" t="s">
-        <v>717</v>
+      <c r="A304" s="369" t="s">
+        <v>718</v>
       </c>
       <c r="B304" s="379" t="s">
         <v>517</v>
@@ -48857,7 +48866,7 @@
       <c r="C304" s="385" t="s">
         <v>530</v>
       </c>
-      <c r="D304" s="421" t="s">
+      <c r="D304" s="420" t="s">
         <v>533</v>
       </c>
       <c r="E304" s="381">
@@ -48893,8 +48902,8 @@
       </c>
     </row>
     <row r="305" spans="1:16" ht="17">
-      <c r="A305" s="378" t="s">
-        <v>718</v>
+      <c r="A305" s="369" t="s">
+        <v>719</v>
       </c>
       <c r="B305" s="379" t="s">
         <v>517</v>
@@ -48902,7 +48911,7 @@
       <c r="C305" s="385" t="s">
         <v>530</v>
       </c>
-      <c r="D305" s="421" t="s">
+      <c r="D305" s="420" t="s">
         <v>535</v>
       </c>
       <c r="E305" s="381">
@@ -48934,8 +48943,8 @@
       <c r="P305" s="317"/>
     </row>
     <row r="306" spans="1:16" ht="17">
-      <c r="A306" s="378" t="s">
-        <v>719</v>
+      <c r="A306" s="369" t="s">
+        <v>720</v>
       </c>
       <c r="B306" s="379" t="s">
         <v>517</v>
@@ -48943,7 +48952,7 @@
       <c r="C306" s="385" t="s">
         <v>530</v>
       </c>
-      <c r="D306" s="421" t="s">
+      <c r="D306" s="420" t="s">
         <v>537</v>
       </c>
       <c r="E306" s="381">
@@ -48979,8 +48988,8 @@
       </c>
     </row>
     <row r="307" spans="1:16" ht="17">
-      <c r="A307" s="378" t="s">
-        <v>720</v>
+      <c r="A307" s="369" t="s">
+        <v>721</v>
       </c>
       <c r="B307" s="379" t="s">
         <v>517</v>
@@ -48988,7 +48997,7 @@
       <c r="C307" s="385" t="s">
         <v>530</v>
       </c>
-      <c r="D307" s="421" t="s">
+      <c r="D307" s="420" t="s">
         <v>539</v>
       </c>
       <c r="E307" s="381">
@@ -49024,8 +49033,8 @@
       </c>
     </row>
     <row r="308" spans="1:16" ht="17">
-      <c r="A308" s="378" t="s">
-        <v>721</v>
+      <c r="A308" s="369" t="s">
+        <v>722</v>
       </c>
       <c r="B308" s="379" t="s">
         <v>517</v>
@@ -49033,7 +49042,7 @@
       <c r="C308" s="385" t="s">
         <v>530</v>
       </c>
-      <c r="D308" s="421" t="s">
+      <c r="D308" s="420" t="s">
         <v>541</v>
       </c>
       <c r="E308" s="381">
@@ -49069,8 +49078,8 @@
       </c>
     </row>
     <row r="309" spans="1:16" ht="17">
-      <c r="A309" s="378" t="s">
-        <v>722</v>
+      <c r="A309" s="369" t="s">
+        <v>723</v>
       </c>
       <c r="B309" s="379" t="s">
         <v>517</v>
@@ -49078,7 +49087,7 @@
       <c r="C309" s="385" t="s">
         <v>530</v>
       </c>
-      <c r="D309" s="421" t="s">
+      <c r="D309" s="420" t="s">
         <v>543</v>
       </c>
       <c r="E309" s="381">
@@ -49114,16 +49123,16 @@
       </c>
     </row>
     <row r="310" spans="1:16" ht="17">
-      <c r="A310" s="378" t="s">
-        <v>723</v>
+      <c r="A310" s="369" t="s">
+        <v>724</v>
       </c>
       <c r="B310" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C310" s="421" t="s">
+      <c r="C310" s="420" t="s">
         <v>545</v>
       </c>
-      <c r="D310" s="421" t="s">
+      <c r="D310" s="420" t="s">
         <v>546</v>
       </c>
       <c r="E310" s="381">
@@ -49159,16 +49168,16 @@
       </c>
     </row>
     <row r="311" spans="1:16" ht="17">
-      <c r="A311" s="378" t="s">
-        <v>724</v>
+      <c r="A311" s="369" t="s">
+        <v>725</v>
       </c>
       <c r="B311" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C311" s="421" t="s">
+      <c r="C311" s="420" t="s">
         <v>545</v>
       </c>
-      <c r="D311" s="421" t="s">
+      <c r="D311" s="420" t="s">
         <v>548</v>
       </c>
       <c r="E311" s="381">
@@ -49204,16 +49213,16 @@
       </c>
     </row>
     <row r="312" spans="1:16" ht="17">
-      <c r="A312" s="378" t="s">
-        <v>725</v>
+      <c r="A312" s="369" t="s">
+        <v>726</v>
       </c>
       <c r="B312" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C312" s="421" t="s">
+      <c r="C312" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D312" s="421" t="s">
+      <c r="D312" s="420" t="s">
         <v>551</v>
       </c>
       <c r="E312" s="381">
@@ -49249,16 +49258,16 @@
       </c>
     </row>
     <row r="313" spans="1:16" ht="17">
-      <c r="A313" s="378" t="s">
-        <v>726</v>
+      <c r="A313" s="369" t="s">
+        <v>727</v>
       </c>
       <c r="B313" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C313" s="421" t="s">
+      <c r="C313" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D313" s="421" t="s">
+      <c r="D313" s="420" t="s">
         <v>553</v>
       </c>
       <c r="E313" s="381">
@@ -49294,16 +49303,16 @@
       </c>
     </row>
     <row r="314" spans="1:16" ht="17">
-      <c r="A314" s="378" t="s">
-        <v>727</v>
+      <c r="A314" s="369" t="s">
+        <v>728</v>
       </c>
       <c r="B314" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C314" s="421" t="s">
+      <c r="C314" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D314" s="421" t="s">
+      <c r="D314" s="420" t="s">
         <v>555</v>
       </c>
       <c r="E314" s="381">
@@ -49339,16 +49348,16 @@
       </c>
     </row>
     <row r="315" spans="1:16" ht="17">
-      <c r="A315" s="378" t="s">
-        <v>728</v>
+      <c r="A315" s="369" t="s">
+        <v>729</v>
       </c>
       <c r="B315" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C315" s="421" t="s">
+      <c r="C315" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D315" s="421" t="s">
+      <c r="D315" s="420" t="s">
         <v>557</v>
       </c>
       <c r="E315" s="381">
@@ -49384,16 +49393,16 @@
       </c>
     </row>
     <row r="316" spans="1:16" ht="17">
-      <c r="A316" s="378" t="s">
-        <v>729</v>
+      <c r="A316" s="369" t="s">
+        <v>730</v>
       </c>
       <c r="B316" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C316" s="421" t="s">
+      <c r="C316" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D316" s="421" t="s">
+      <c r="D316" s="420" t="s">
         <v>559</v>
       </c>
       <c r="E316" s="381">
@@ -49429,16 +49438,16 @@
       </c>
     </row>
     <row r="317" spans="1:16" ht="17">
-      <c r="A317" s="378" t="s">
-        <v>730</v>
+      <c r="A317" s="369" t="s">
+        <v>731</v>
       </c>
       <c r="B317" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C317" s="421" t="s">
+      <c r="C317" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D317" s="421" t="s">
+      <c r="D317" s="420" t="s">
         <v>561</v>
       </c>
       <c r="E317" s="381">
@@ -49474,16 +49483,16 @@
       </c>
     </row>
     <row r="318" spans="1:16" ht="17">
-      <c r="A318" s="378" t="s">
-        <v>731</v>
+      <c r="A318" s="369" t="s">
+        <v>732</v>
       </c>
       <c r="B318" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C318" s="421" t="s">
+      <c r="C318" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D318" s="421" t="s">
+      <c r="D318" s="420" t="s">
         <v>563</v>
       </c>
       <c r="E318" s="381">
@@ -49519,16 +49528,16 @@
       </c>
     </row>
     <row r="319" spans="1:16" ht="17">
-      <c r="A319" s="378" t="s">
-        <v>732</v>
+      <c r="A319" s="369" t="s">
+        <v>1087</v>
       </c>
       <c r="B319" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C319" s="421" t="s">
+      <c r="C319" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D319" s="421" t="s">
+      <c r="D319" s="420" t="s">
         <v>565</v>
       </c>
       <c r="E319" s="381">
@@ -49564,16 +49573,16 @@
       </c>
     </row>
     <row r="320" spans="1:16" ht="17">
-      <c r="A320" s="378" t="s">
-        <v>1087</v>
+      <c r="A320" s="369" t="s">
+        <v>1090</v>
       </c>
       <c r="B320" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C320" s="421" t="s">
+      <c r="C320" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D320" s="421" t="s">
+      <c r="D320" s="420" t="s">
         <v>567</v>
       </c>
       <c r="E320" s="381">
@@ -49609,16 +49618,16 @@
       </c>
     </row>
     <row r="321" spans="1:16" ht="17">
-      <c r="A321" s="378" t="s">
-        <v>1090</v>
+      <c r="A321" s="369" t="s">
+        <v>1093</v>
       </c>
       <c r="B321" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C321" s="421" t="s">
+      <c r="C321" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D321" s="421" t="s">
+      <c r="D321" s="420" t="s">
         <v>569</v>
       </c>
       <c r="E321" s="381">
@@ -49654,16 +49663,16 @@
       </c>
     </row>
     <row r="322" spans="1:16" ht="17">
-      <c r="A322" s="378" t="s">
-        <v>1093</v>
+      <c r="A322" s="369" t="s">
+        <v>1096</v>
       </c>
       <c r="B322" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C322" s="421" t="s">
+      <c r="C322" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D322" s="421" t="s">
+      <c r="D322" s="420" t="s">
         <v>571</v>
       </c>
       <c r="E322" s="381">
@@ -49699,16 +49708,16 @@
       </c>
     </row>
     <row r="323" spans="1:16" ht="17">
-      <c r="A323" s="378" t="s">
-        <v>1096</v>
+      <c r="A323" s="369" t="s">
+        <v>1098</v>
       </c>
       <c r="B323" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C323" s="421" t="s">
+      <c r="C323" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D323" s="421" t="s">
+      <c r="D323" s="420" t="s">
         <v>573</v>
       </c>
       <c r="E323" s="381">
@@ -49744,16 +49753,16 @@
       </c>
     </row>
     <row r="324" spans="1:16" ht="17">
-      <c r="A324" s="378" t="s">
-        <v>1098</v>
+      <c r="A324" s="369" t="s">
+        <v>1101</v>
       </c>
       <c r="B324" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C324" s="421" t="s">
+      <c r="C324" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D324" s="421" t="s">
+      <c r="D324" s="420" t="s">
         <v>575</v>
       </c>
       <c r="E324" s="381">
@@ -49789,16 +49798,16 @@
       </c>
     </row>
     <row r="325" spans="1:16" ht="17">
-      <c r="A325" s="378" t="s">
-        <v>1101</v>
+      <c r="A325" s="369" t="s">
+        <v>1104</v>
       </c>
       <c r="B325" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C325" s="421" t="s">
+      <c r="C325" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D325" s="421" t="s">
+      <c r="D325" s="420" t="s">
         <v>577</v>
       </c>
       <c r="E325" s="381">
@@ -49834,16 +49843,16 @@
       </c>
     </row>
     <row r="326" spans="1:16" ht="17">
-      <c r="A326" s="378" t="s">
-        <v>1104</v>
+      <c r="A326" s="369" t="s">
+        <v>1107</v>
       </c>
       <c r="B326" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C326" s="421" t="s">
+      <c r="C326" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D326" s="421" t="s">
+      <c r="D326" s="420" t="s">
         <v>579</v>
       </c>
       <c r="E326" s="381">
@@ -49879,16 +49888,16 @@
       </c>
     </row>
     <row r="327" spans="1:16" ht="17">
-      <c r="A327" s="378" t="s">
-        <v>1107</v>
+      <c r="A327" s="369" t="s">
+        <v>1110</v>
       </c>
       <c r="B327" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C327" s="421" t="s">
+      <c r="C327" s="420" t="s">
         <v>550</v>
       </c>
-      <c r="D327" s="421" t="s">
+      <c r="D327" s="420" t="s">
         <v>581</v>
       </c>
       <c r="E327" s="381">
@@ -49924,16 +49933,16 @@
       </c>
     </row>
     <row r="328" spans="1:16" ht="17">
-      <c r="A328" s="378" t="s">
-        <v>1110</v>
+      <c r="A328" s="369" t="s">
+        <v>1112</v>
       </c>
       <c r="B328" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C328" s="421" t="s">
+      <c r="C328" s="420" t="s">
         <v>583</v>
       </c>
-      <c r="D328" s="421" t="s">
+      <c r="D328" s="420" t="s">
         <v>584</v>
       </c>
       <c r="E328" s="381">
@@ -49969,13 +49978,13 @@
       </c>
     </row>
     <row r="329" spans="1:16" ht="17">
-      <c r="A329" s="378" t="s">
-        <v>1112</v>
+      <c r="A329" s="369" t="s">
+        <v>1114</v>
       </c>
       <c r="B329" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C329" s="421" t="s">
+      <c r="C329" s="420" t="s">
         <v>583</v>
       </c>
       <c r="D329" s="385" t="s">
@@ -50014,13 +50023,13 @@
       </c>
     </row>
     <row r="330" spans="1:16" ht="17">
-      <c r="A330" s="378" t="s">
-        <v>1114</v>
+      <c r="A330" s="369" t="s">
+        <v>1119</v>
       </c>
       <c r="B330" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C330" s="421" t="s">
+      <c r="C330" s="420" t="s">
         <v>583</v>
       </c>
       <c r="D330" s="385" t="s">
@@ -50059,13 +50068,13 @@
       </c>
     </row>
     <row r="331" spans="1:16" ht="17">
-      <c r="A331" s="378" t="s">
-        <v>1114</v>
+      <c r="A331" s="369" t="s">
+        <v>1120</v>
       </c>
       <c r="B331" s="379" t="s">
         <v>517</v>
       </c>
-      <c r="C331" s="421" t="s">
+      <c r="C331" s="420" t="s">
         <v>996</v>
       </c>
       <c r="D331" s="385" t="s">
@@ -50218,14 +50227,14 @@
       <c r="N335" s="354"/>
     </row>
     <row r="336" spans="1:16">
-      <c r="A336" s="422" t="s">
+      <c r="A336" s="421" t="s">
         <v>599</v>
       </c>
-      <c r="B336" s="422"/>
-      <c r="C336" s="422"/>
-      <c r="D336" s="422"/>
-      <c r="E336" s="423"/>
-      <c r="F336" s="423"/>
+      <c r="B336" s="421"/>
+      <c r="C336" s="421"/>
+      <c r="D336" s="421"/>
+      <c r="E336" s="422"/>
+      <c r="F336" s="422"/>
       <c r="G336"/>
       <c r="H336" s="357"/>
       <c r="I336" s="356"/>
@@ -50280,7 +50289,7 @@
       <c r="C338" s="374" t="s">
         <v>602</v>
       </c>
-      <c r="D338" s="424" t="s">
+      <c r="D338" s="423" t="s">
         <v>606</v>
       </c>
       <c r="E338" s="381" t="s">
@@ -50306,14 +50315,14 @@
       <c r="N338" s="354"/>
     </row>
     <row r="339" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A339" s="452" t="s">
+      <c r="A339" s="451" t="s">
         <v>608</v>
       </c>
-      <c r="B339" s="452"/>
-      <c r="C339" s="452"/>
-      <c r="D339" s="452"/>
-      <c r="E339" s="452"/>
-      <c r="F339" s="425"/>
+      <c r="B339" s="451"/>
+      <c r="C339" s="451"/>
+      <c r="D339" s="451"/>
+      <c r="E339" s="451"/>
+      <c r="F339" s="424"/>
       <c r="G339"/>
       <c r="H339" s="360"/>
       <c r="I339" s="361"/>
@@ -50365,7 +50374,7 @@
       <c r="B341" s="373" t="s">
         <v>610</v>
       </c>
-      <c r="C341" s="426"/>
+      <c r="C341" s="425"/>
       <c r="D341" s="374" t="s">
         <v>614</v>
       </c>
@@ -50400,7 +50409,7 @@
       <c r="B342" s="373" t="s">
         <v>610</v>
       </c>
-      <c r="C342" s="426"/>
+      <c r="C342" s="425"/>
       <c r="D342" s="374" t="s">
         <v>617</v>
       </c>
@@ -50427,14 +50436,14 @@
       <c r="N342" s="354"/>
     </row>
     <row r="343" spans="1:14">
-      <c r="A343" s="427" t="s">
+      <c r="A343" s="426" t="s">
         <v>619</v>
       </c>
-      <c r="B343" s="425"/>
-      <c r="C343" s="425"/>
-      <c r="D343" s="425"/>
-      <c r="E343" s="428"/>
-      <c r="F343" s="428"/>
+      <c r="B343" s="424"/>
+      <c r="C343" s="424"/>
+      <c r="D343" s="424"/>
+      <c r="E343" s="427"/>
+      <c r="F343" s="427"/>
       <c r="G343"/>
       <c r="H343" s="360"/>
       <c r="I343" s="361"/>
@@ -50585,14 +50594,14 @@
       <c r="N347" s="354"/>
     </row>
     <row r="348" spans="1:14">
-      <c r="A348" s="454" t="s">
+      <c r="A348" s="453" t="s">
         <v>633</v>
       </c>
-      <c r="B348" s="454"/>
-      <c r="C348" s="429"/>
-      <c r="D348" s="430"/>
-      <c r="E348" s="430"/>
-      <c r="F348" s="430"/>
+      <c r="B348" s="453"/>
+      <c r="C348" s="428"/>
+      <c r="D348" s="429"/>
+      <c r="E348" s="429"/>
+      <c r="F348" s="429"/>
       <c r="G348"/>
       <c r="H348" s="350"/>
       <c r="I348" s="52"/>
@@ -50644,7 +50653,7 @@
       <c r="B350" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C350" s="455" t="s">
+      <c r="C350" s="454" t="s">
         <v>639</v>
       </c>
       <c r="D350" s="374" t="s">
@@ -50679,7 +50688,7 @@
       <c r="B351" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C351" s="455"/>
+      <c r="C351" s="454"/>
       <c r="D351" s="374" t="s">
         <v>642</v>
       </c>
@@ -50712,7 +50721,7 @@
       <c r="B352" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C352" s="455"/>
+      <c r="C352" s="454"/>
       <c r="D352" s="374" t="s">
         <v>644</v>
       </c>
@@ -50745,7 +50754,7 @@
       <c r="B353" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C353" s="453" t="s">
+      <c r="C353" s="452" t="s">
         <v>646</v>
       </c>
       <c r="D353" s="374" t="s">
@@ -50780,7 +50789,7 @@
       <c r="B354" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C354" s="453"/>
+      <c r="C354" s="452"/>
       <c r="D354" s="374" t="s">
         <v>642</v>
       </c>
@@ -50813,7 +50822,7 @@
       <c r="B355" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C355" s="453"/>
+      <c r="C355" s="452"/>
       <c r="D355" s="374" t="s">
         <v>644</v>
       </c>
@@ -50846,7 +50855,7 @@
       <c r="B356" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C356" s="453" t="s">
+      <c r="C356" s="452" t="s">
         <v>650</v>
       </c>
       <c r="D356" s="374" t="s">
@@ -50881,7 +50890,7 @@
       <c r="B357" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C357" s="453"/>
+      <c r="C357" s="452"/>
       <c r="D357" s="374" t="s">
         <v>642</v>
       </c>
@@ -50914,7 +50923,7 @@
       <c r="B358" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C358" s="453"/>
+      <c r="C358" s="452"/>
       <c r="D358" s="374" t="s">
         <v>644</v>
       </c>
@@ -50947,7 +50956,7 @@
       <c r="B359" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C359" s="453" t="s">
+      <c r="C359" s="452" t="s">
         <v>653</v>
       </c>
       <c r="D359" s="374" t="s">
@@ -50982,7 +50991,7 @@
       <c r="B360" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C360" s="453"/>
+      <c r="C360" s="452"/>
       <c r="D360" s="374" t="s">
         <v>642</v>
       </c>
@@ -51015,7 +51024,7 @@
       <c r="B361" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C361" s="453"/>
+      <c r="C361" s="452"/>
       <c r="D361" s="374" t="s">
         <v>644</v>
       </c>
@@ -51048,7 +51057,7 @@
       <c r="B362" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C362" s="453" t="s">
+      <c r="C362" s="452" t="s">
         <v>654</v>
       </c>
       <c r="D362" s="374" t="s">
@@ -51083,7 +51092,7 @@
       <c r="B363" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C363" s="453"/>
+      <c r="C363" s="452"/>
       <c r="D363" s="374" t="s">
         <v>642</v>
       </c>
@@ -51116,7 +51125,7 @@
       <c r="B364" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C364" s="453"/>
+      <c r="C364" s="452"/>
       <c r="D364" s="374" t="s">
         <v>644</v>
       </c>
@@ -51149,7 +51158,7 @@
       <c r="B365" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C365" s="453" t="s">
+      <c r="C365" s="452" t="s">
         <v>655</v>
       </c>
       <c r="D365" s="374" t="s">
@@ -51184,7 +51193,7 @@
       <c r="B366" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C366" s="453"/>
+      <c r="C366" s="452"/>
       <c r="D366" s="374" t="s">
         <v>642</v>
       </c>
@@ -51217,7 +51226,7 @@
       <c r="B367" s="376" t="s">
         <v>635</v>
       </c>
-      <c r="C367" s="453"/>
+      <c r="C367" s="452"/>
       <c r="D367" s="374" t="s">
         <v>644</v>
       </c>
@@ -52266,16 +52275,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="448" t="s">
+      <c r="B1" s="447" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="449"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="446" t="s">
+      <c r="C1" s="448"/>
+      <c r="D1" s="449"/>
+      <c r="E1" s="445" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="447"/>
-      <c r="G1" s="447"/>
+      <c r="F1" s="446"/>
+      <c r="G1" s="446"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
@@ -52352,13 +52361,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="A5" s="439" t="s">
+      <c r="A5" s="438" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="439"/>
-      <c r="C5" s="439"/>
-      <c r="D5" s="439"/>
-      <c r="E5" s="439"/>
+      <c r="B5" s="438"/>
+      <c r="C5" s="438"/>
+      <c r="D5" s="438"/>
+      <c r="E5" s="438"/>
       <c r="F5" s="87"/>
       <c r="G5" s="87"/>
       <c r="H5" s="87"/>
@@ -63539,12 +63548,12 @@
       <c r="N296" s="97"/>
     </row>
     <row r="297" spans="1:14">
-      <c r="A297" s="439" t="s">
+      <c r="A297" s="438" t="s">
         <v>589</v>
       </c>
-      <c r="B297" s="439"/>
-      <c r="C297" s="439"/>
-      <c r="D297" s="439"/>
+      <c r="B297" s="438"/>
+      <c r="C297" s="438"/>
+      <c r="D297" s="438"/>
       <c r="E297" s="155"/>
       <c r="F297" s="87"/>
       <c r="G297" s="87"/>
@@ -63668,11 +63677,11 @@
       <c r="N300" s="92"/>
     </row>
     <row r="301" spans="1:14">
-      <c r="A301" s="439" t="s">
+      <c r="A301" s="438" t="s">
         <v>599</v>
       </c>
-      <c r="B301" s="439"/>
-      <c r="C301" s="439"/>
+      <c r="B301" s="438"/>
+      <c r="C301" s="438"/>
       <c r="D301" s="87"/>
       <c r="E301" s="155"/>
       <c r="F301" s="87"/>
@@ -63760,13 +63769,13 @@
       <c r="N303" s="97"/>
     </row>
     <row r="304" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A304" s="439" t="s">
+      <c r="A304" s="438" t="s">
         <v>608</v>
       </c>
-      <c r="B304" s="439"/>
-      <c r="C304" s="439"/>
-      <c r="D304" s="439"/>
-      <c r="E304" s="439"/>
+      <c r="B304" s="438"/>
+      <c r="C304" s="438"/>
+      <c r="D304" s="438"/>
+      <c r="E304" s="438"/>
       <c r="F304" s="107"/>
       <c r="G304" s="107"/>
       <c r="H304" s="107"/>
@@ -64049,10 +64058,10 @@
       <c r="N312" s="97"/>
     </row>
     <row r="313" spans="1:14">
-      <c r="A313" s="439" t="s">
+      <c r="A313" s="438" t="s">
         <v>633</v>
       </c>
-      <c r="B313" s="439"/>
+      <c r="B313" s="438"/>
       <c r="C313" s="107"/>
       <c r="D313" s="108"/>
       <c r="E313" s="168"/>
@@ -65650,18 +65659,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65684,14 +65693,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9624B199-998A-4637-BA8D-94E8C6F11302}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DD67001-0B13-466A-BAFD-77191DAD1C14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="634a5770-89de-4ea9-9550-ed15d2eabeb5"/>
@@ -65706,4 +65707,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9624B199-998A-4637-BA8D-94E8C6F11302}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>